--- a/Examples/Problems solutions.xlsx
+++ b/Examples/Problems solutions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!MyFiles\PhD\FrictionalContactFEM\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F698C33-1045-48BC-BEC7-BB71734C6D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27390F23-1457-451F-A942-39612CF1EE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -170,10 +170,10 @@
     <t>ЛУЧ, P не выбить из базиса</t>
   </si>
   <si>
-    <t>ЭТАП 1</t>
+    <t>ЛУЧ</t>
   </si>
   <si>
-    <t>ЛУЧ</t>
+    <t>как получить что p должно быть равно нулю здесь</t>
   </si>
 </sst>
 </file>
@@ -24948,11 +24948,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA946C9-CC82-403B-9946-DA1124127D9B}">
-  <dimension ref="A1:AB198"/>
+  <dimension ref="A1:Y198"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z22" sqref="Z22"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25155,7 +25155,7 @@
       <c r="T3" s="2">
         <v>-1</v>
       </c>
-      <c r="U3" s="8">
+      <c r="U3" s="3">
         <v>-9.3749999999999931E-2</v>
       </c>
       <c r="V3" s="2">
@@ -25172,70 +25172,70 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="8">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8">
-        <v>0</v>
-      </c>
-      <c r="K4" s="8">
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
         <v>0.18750000000000019</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="3">
         <v>-0.375</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="3">
         <v>0.18750000000000039</v>
       </c>
-      <c r="N4" s="8">
-        <v>0</v>
-      </c>
-      <c r="O4" s="8">
-        <v>0</v>
-      </c>
-      <c r="P4" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>0</v>
-      </c>
-      <c r="R4" s="8">
-        <v>0</v>
-      </c>
-      <c r="S4" s="8">
-        <v>0</v>
-      </c>
-      <c r="T4" s="8">
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0</v>
+      </c>
+      <c r="S4" s="3">
+        <v>0</v>
+      </c>
+      <c r="T4" s="3">
         <v>-1</v>
       </c>
-      <c r="U4" s="8">
+      <c r="U4" s="3">
         <v>0.68749999999999989</v>
       </c>
-      <c r="V4" s="8">
+      <c r="V4" s="3">
         <v>-0.68749999999999989</v>
       </c>
-      <c r="W4" s="8">
+      <c r="W4" s="3">
         <v>1</v>
       </c>
       <c r="X4">
@@ -25306,7 +25306,7 @@
       <c r="T5" s="2">
         <v>-1</v>
       </c>
-      <c r="U5" s="8">
+      <c r="U5" s="3">
         <v>0.40625000000000011</v>
       </c>
       <c r="V5" s="2">
@@ -25380,7 +25380,7 @@
       <c r="T6" s="2">
         <v>-1</v>
       </c>
-      <c r="U6" s="8">
+      <c r="U6" s="3">
         <v>-1.8749999999999989E-2</v>
       </c>
       <c r="V6" s="2">
@@ -25451,7 +25451,7 @@
       <c r="T7" s="2">
         <v>-1</v>
       </c>
-      <c r="U7" s="8">
+      <c r="U7" s="3">
         <v>0.13750000000000001</v>
       </c>
       <c r="V7" s="2">
@@ -25525,7 +25525,7 @@
       <c r="T8" s="2">
         <v>-1</v>
       </c>
-      <c r="U8" s="8">
+      <c r="U8" s="3">
         <v>8.1250000000000017E-2</v>
       </c>
       <c r="V8" s="2">
@@ -25599,7 +25599,7 @@
       <c r="T9" s="2">
         <v>-1</v>
       </c>
-      <c r="U9" s="8">
+      <c r="U9" s="3">
         <v>-1.8749999999999989E-2</v>
       </c>
       <c r="V9" s="2">
@@ -25670,7 +25670,7 @@
       <c r="T10" s="2">
         <v>-1</v>
       </c>
-      <c r="U10" s="8">
+      <c r="U10" s="3">
         <v>0.13750000000000001</v>
       </c>
       <c r="V10" s="2">
@@ -25744,7 +25744,7 @@
       <c r="T11" s="2">
         <v>-1</v>
       </c>
-      <c r="U11" s="8">
+      <c r="U11" s="3">
         <v>8.1250000000000017E-2</v>
       </c>
       <c r="V11" s="2">
@@ -25853,7 +25853,7 @@
       <c r="K14" s="2">
         <v>-6.8181818181818288E-2</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="3">
         <v>0.1363636363636371</v>
       </c>
       <c r="M14" s="2">
@@ -25930,7 +25930,7 @@
       <c r="K15" s="2">
         <v>0.27272727272727298</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="3">
         <v>-0.54545454545454553</v>
       </c>
       <c r="M15" s="2">
@@ -25974,77 +25974,77 @@
       <c r="A16">
         <v>2</v>
       </c>
-      <c r="B16" s="8">
-        <v>0</v>
-      </c>
-      <c r="C16" s="8">
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
         <v>-0.59090909090909105</v>
       </c>
-      <c r="D16" s="8">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8">
-        <v>0</v>
-      </c>
-      <c r="F16" s="8">
-        <v>0</v>
-      </c>
-      <c r="G16" s="8">
-        <v>0</v>
-      </c>
-      <c r="H16" s="8">
-        <v>0</v>
-      </c>
-      <c r="I16" s="8">
-        <v>0</v>
-      </c>
-      <c r="J16" s="8">
-        <v>0</v>
-      </c>
-      <c r="K16" s="8">
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
         <v>-0.2045454545454547</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="3">
         <v>0.40909090909090928</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="3">
         <v>-0.20454545454545481</v>
       </c>
-      <c r="N16" s="8">
-        <v>0</v>
-      </c>
-      <c r="O16" s="8">
-        <v>0</v>
-      </c>
-      <c r="P16" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="8">
-        <v>0</v>
-      </c>
-      <c r="R16" s="8">
-        <v>0</v>
-      </c>
-      <c r="S16" s="8">
-        <v>0</v>
-      </c>
-      <c r="T16" s="8">
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>0</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0</v>
+      </c>
+      <c r="S16" s="3">
+        <v>0</v>
+      </c>
+      <c r="T16" s="3">
         <v>-0.40909090909090889</v>
       </c>
-      <c r="U16" s="8">
-        <v>0</v>
-      </c>
-      <c r="V16" s="8">
-        <v>0</v>
-      </c>
-      <c r="W16" s="8">
+      <c r="U16" s="3">
+        <v>0</v>
+      </c>
+      <c r="V16" s="3">
+        <v>0</v>
+      </c>
+      <c r="W16" s="3">
         <v>0.40909090909090889</v>
       </c>
       <c r="X16">
         <v>0.99999999999999922</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
@@ -26078,7 +26078,7 @@
       <c r="K17" s="2">
         <v>-1.363636363636366E-2</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="3">
         <v>2.7272727272727421E-2</v>
       </c>
       <c r="M17" s="2">
@@ -26118,7 +26118,7 @@
         <v>37.666666666666458</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>4</v>
       </c>
@@ -26152,7 +26152,7 @@
       <c r="K18" s="2">
         <v>0</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="3">
         <v>0</v>
       </c>
       <c r="M18" s="2">
@@ -26189,7 +26189,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>5</v>
       </c>
@@ -26223,7 +26223,7 @@
       <c r="K19" s="2">
         <v>-4.090909090909095E-2</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="3">
         <v>8.1818181818181845E-2</v>
       </c>
       <c r="M19" s="2">
@@ -26263,7 +26263,7 @@
         <v>10.77777777777778</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>6</v>
       </c>
@@ -26297,7 +26297,7 @@
       <c r="K20" s="2">
         <v>-1.363636363636366E-2</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="3">
         <v>2.7272727272727421E-2</v>
       </c>
       <c r="M20" s="2">
@@ -26337,7 +26337,7 @@
         <v>37.666666666666458</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>7</v>
       </c>
@@ -26371,7 +26371,7 @@
       <c r="K21" s="2">
         <v>0</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L21" s="3">
         <v>0</v>
       </c>
       <c r="M21" s="2">
@@ -26408,7 +26408,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>8</v>
       </c>
@@ -26442,7 +26442,7 @@
       <c r="K22" s="2">
         <v>-4.090909090909095E-2</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L22" s="3">
         <v>8.1818181818181845E-2</v>
       </c>
       <c r="M22" s="2">
@@ -26482,7 +26482,7 @@
         <v>10.77777777777778</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>0</v>
       </c>
@@ -26543,8 +26543,14 @@
       <c r="U24">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="X24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0</v>
       </c>
@@ -26581,7 +26587,7 @@
       <c r="L25" s="2">
         <v>0</v>
       </c>
-      <c r="M25" s="8">
+      <c r="M25" s="3">
         <v>-1.9428902930940239E-16</v>
       </c>
       <c r="N25" s="2">
@@ -26618,88 +26624,81 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>19</v>
       </c>
-      <c r="B26" s="8">
-        <v>0</v>
-      </c>
-      <c r="C26" s="8">
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
         <v>0.66666666666666707</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="2">
         <v>1.333333333333333</v>
       </c>
-      <c r="E26" s="8">
-        <v>0</v>
-      </c>
-      <c r="F26" s="8">
-        <v>0</v>
-      </c>
-      <c r="G26" s="8">
-        <v>0</v>
-      </c>
-      <c r="H26" s="8">
-        <v>0</v>
-      </c>
-      <c r="I26" s="8">
-        <v>0</v>
-      </c>
-      <c r="J26" s="8">
-        <v>0</v>
-      </c>
-      <c r="K26" s="8">
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2">
         <v>2.2204460492503131E-16</v>
       </c>
-      <c r="L26" s="8">
-        <v>0</v>
-      </c>
-      <c r="M26" s="8">
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>3.3306690738754701E-16</v>
       </c>
-      <c r="N26" s="8">
-        <v>0</v>
-      </c>
-      <c r="O26" s="8">
-        <v>0</v>
-      </c>
-      <c r="P26" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="8">
-        <v>0</v>
-      </c>
-      <c r="R26" s="8">
-        <v>0</v>
-      </c>
-      <c r="S26" s="8">
-        <v>0</v>
-      </c>
-      <c r="T26" s="8">
+      <c r="N26" s="2">
+        <v>0</v>
+      </c>
+      <c r="O26" s="2">
+        <v>0</v>
+      </c>
+      <c r="P26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>0</v>
+      </c>
+      <c r="R26" s="2">
+        <v>0</v>
+      </c>
+      <c r="S26" s="2">
+        <v>0</v>
+      </c>
+      <c r="T26" s="2">
         <v>-2</v>
       </c>
-      <c r="U26" s="8">
-        <v>1</v>
-      </c>
-      <c r="V26" s="8">
+      <c r="U26" s="2">
+        <v>1</v>
+      </c>
+      <c r="V26" s="2">
         <v>-1</v>
       </c>
-      <c r="W26" s="8">
+      <c r="W26" s="2">
         <v>2</v>
-      </c>
-      <c r="X26">
-        <v>6004799503160661</v>
       </c>
       <c r="Y26">
         <v>11</v>
       </c>
-      <c r="AB26">
-        <f>M15-L15*M27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>10</v>
       </c>
@@ -26736,7 +26735,7 @@
       <c r="L27" s="2">
         <v>1</v>
       </c>
-      <c r="M27" s="8">
+      <c r="M27" s="3">
         <v>-0.50000000000000044</v>
       </c>
       <c r="N27" s="2">
@@ -26770,7 +26769,7 @@
         <v>0.99999999999999922</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3</v>
       </c>
@@ -26807,7 +26806,7 @@
       <c r="L28" s="2">
         <v>0</v>
       </c>
-      <c r="M28" s="8">
+      <c r="M28" s="3">
         <v>-3.8163916471489762E-17</v>
       </c>
       <c r="N28" s="2">
@@ -26841,7 +26840,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>4</v>
       </c>
@@ -26878,7 +26877,7 @@
       <c r="L29" s="2">
         <v>0</v>
       </c>
-      <c r="M29" s="8">
+      <c r="M29" s="3">
         <v>0</v>
       </c>
       <c r="N29" s="2">
@@ -26912,7 +26911,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>5</v>
       </c>
@@ -26949,7 +26948,7 @@
       <c r="L30" s="2">
         <v>-1.387778780781446E-17</v>
       </c>
-      <c r="M30" s="8">
+      <c r="M30" s="3">
         <v>-1.387778780781446E-17</v>
       </c>
       <c r="N30" s="2">
@@ -26983,7 +26982,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>6</v>
       </c>
@@ -27020,7 +27019,7 @@
       <c r="L31" s="2">
         <v>0</v>
       </c>
-      <c r="M31" s="8">
+      <c r="M31" s="3">
         <v>-3.8163916471489762E-17</v>
       </c>
       <c r="N31" s="2">
@@ -27054,7 +27053,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>7</v>
       </c>
@@ -27091,7 +27090,7 @@
       <c r="L32" s="2">
         <v>0</v>
       </c>
-      <c r="M32" s="8">
+      <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="2">
@@ -27162,7 +27161,7 @@
       <c r="L33" s="2">
         <v>-1.387778780781446E-17</v>
       </c>
-      <c r="M33" s="8">
+      <c r="M33" s="3">
         <v>-1.387778780781446E-17</v>
       </c>
       <c r="N33" s="2">
@@ -27257,9 +27256,8 @@
       <c r="U35">
         <v>19</v>
       </c>
-      <c r="W35" s="6"/>
-      <c r="X35" s="6" t="s">
-        <v>44</v>
+      <c r="V35">
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.3">
@@ -27270,10 +27268,10 @@
         <v>1</v>
       </c>
       <c r="C36" s="2">
-        <v>0.72222222222222343</v>
+        <v>0.50000000000000178</v>
       </c>
       <c r="D36" s="2">
-        <v>0.44444444444444259</v>
+        <v>0</v>
       </c>
       <c r="E36" s="2">
         <v>0</v>
@@ -27294,13 +27292,13 @@
         <v>0</v>
       </c>
       <c r="K36" s="2">
-        <v>4.0708177569589081E-16</v>
+        <v>3.1918911957973251E-16</v>
       </c>
       <c r="L36" s="2">
         <v>0</v>
       </c>
       <c r="M36" s="2">
-        <v>0</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="N36" s="2">
         <v>0</v>
@@ -27321,164 +27319,167 @@
         <v>0</v>
       </c>
       <c r="T36" s="2">
-        <v>-2.1666666666666661</v>
+        <v>-1.500000000000002</v>
       </c>
       <c r="U36" s="2">
-        <v>0.58333333333333337</v>
+        <v>0.25000000000000128</v>
       </c>
       <c r="V36" s="8">
-        <v>-0.58333333333333337</v>
+        <v>-0.25000000000000128</v>
       </c>
       <c r="W36" s="2">
-        <v>0.99999999999999933</v>
+        <v>1.500000000000002</v>
       </c>
       <c r="Y36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>11</v>
-      </c>
-      <c r="B37" s="2">
-        <v>0</v>
-      </c>
-      <c r="C37" s="2">
-        <v>2001599834386888</v>
-      </c>
-      <c r="D37" s="2">
-        <v>4003199668773772</v>
-      </c>
-      <c r="E37" s="2">
-        <v>0</v>
-      </c>
-      <c r="F37" s="2">
-        <v>0</v>
-      </c>
-      <c r="G37" s="2">
-        <v>0</v>
-      </c>
-      <c r="H37" s="2">
-        <v>0</v>
-      </c>
-      <c r="I37" s="2">
-        <v>0</v>
-      </c>
-      <c r="J37" s="2">
-        <v>0</v>
-      </c>
-      <c r="K37" s="2">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="L37" s="2">
-        <v>0</v>
-      </c>
-      <c r="M37" s="2">
-        <v>1</v>
-      </c>
-      <c r="N37" s="2">
-        <v>0</v>
-      </c>
-      <c r="O37" s="2">
-        <v>0</v>
-      </c>
-      <c r="P37" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="2">
-        <v>0</v>
-      </c>
-      <c r="R37" s="2">
-        <v>0</v>
-      </c>
-      <c r="S37" s="2">
-        <v>0</v>
-      </c>
-      <c r="T37" s="2">
-        <v>-6004799503160661</v>
-      </c>
-      <c r="U37" s="2">
-        <v>3002399751580330</v>
+        <v>10</v>
+      </c>
+      <c r="B37" s="8">
+        <v>0</v>
+      </c>
+      <c r="C37" s="8">
+        <v>-2.666666666666667</v>
+      </c>
+      <c r="D37" s="8">
+        <v>0</v>
+      </c>
+      <c r="E37" s="8">
+        <v>0</v>
+      </c>
+      <c r="F37" s="8">
+        <v>0</v>
+      </c>
+      <c r="G37" s="8">
+        <v>0</v>
+      </c>
+      <c r="H37" s="8">
+        <v>0</v>
+      </c>
+      <c r="I37" s="8">
+        <v>0</v>
+      </c>
+      <c r="J37" s="8">
+        <v>0</v>
+      </c>
+      <c r="K37" s="8">
+        <v>-0.50000000000000056</v>
+      </c>
+      <c r="L37" s="8">
+        <v>1</v>
+      </c>
+      <c r="M37" s="8">
+        <v>-0.500000000000001</v>
+      </c>
+      <c r="N37" s="8">
+        <v>0</v>
+      </c>
+      <c r="O37" s="8">
+        <v>0</v>
+      </c>
+      <c r="P37" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="8">
+        <v>0</v>
+      </c>
+      <c r="R37" s="8">
+        <v>0</v>
+      </c>
+      <c r="S37" s="8">
+        <v>0</v>
+      </c>
+      <c r="T37" s="8">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="U37" s="8">
+        <v>-1.833333333333333</v>
       </c>
       <c r="V37" s="8">
-        <v>-3002399751580330</v>
-      </c>
-      <c r="W37" s="2">
-        <v>0</v>
+        <v>1.833333333333333</v>
+      </c>
+      <c r="W37" s="8">
+        <v>-2.666666666666667</v>
+      </c>
+      <c r="X37">
+        <v>-2.666666666666667</v>
       </c>
       <c r="Y37">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>10</v>
       </c>
-      <c r="B38" s="8">
-        <v>0</v>
-      </c>
-      <c r="C38" s="8">
-        <v>1000799917193444</v>
-      </c>
-      <c r="D38" s="8">
-        <v>2001599834386890</v>
-      </c>
-      <c r="E38" s="8">
-        <v>0</v>
-      </c>
-      <c r="F38" s="8">
-        <v>0</v>
-      </c>
-      <c r="G38" s="8">
-        <v>0</v>
-      </c>
-      <c r="H38" s="8">
-        <v>0</v>
-      </c>
-      <c r="I38" s="8">
-        <v>0</v>
-      </c>
-      <c r="J38" s="8">
-        <v>0</v>
-      </c>
-      <c r="K38" s="8">
-        <v>-0.16666666666666649</v>
-      </c>
-      <c r="L38" s="8">
-        <v>1</v>
-      </c>
-      <c r="M38" s="8">
-        <v>0</v>
-      </c>
-      <c r="N38" s="8">
-        <v>0</v>
-      </c>
-      <c r="O38" s="8">
-        <v>0</v>
-      </c>
-      <c r="P38" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="8">
-        <v>0</v>
-      </c>
-      <c r="R38" s="8">
-        <v>0</v>
-      </c>
-      <c r="S38" s="8">
-        <v>0</v>
-      </c>
-      <c r="T38" s="8">
-        <v>-3002399751580334</v>
-      </c>
-      <c r="U38" s="8">
-        <v>1501199875790167</v>
+      <c r="B38" s="2">
+        <v>0</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.50000000000000044</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0</v>
+      </c>
+      <c r="K38" s="2">
+        <v>1.6653345369377351E-16</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0</v>
+      </c>
+      <c r="M38" s="2">
+        <v>2.4980018054066022E-16</v>
+      </c>
+      <c r="N38" s="2">
+        <v>0</v>
+      </c>
+      <c r="O38" s="2">
+        <v>0</v>
+      </c>
+      <c r="P38" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>0</v>
+      </c>
+      <c r="R38" s="2">
+        <v>0</v>
+      </c>
+      <c r="S38" s="2">
+        <v>0</v>
+      </c>
+      <c r="T38" s="2">
+        <v>-1.5</v>
+      </c>
+      <c r="U38" s="2">
+        <v>0.75000000000000022</v>
       </c>
       <c r="V38" s="8">
-        <v>-1501199875790167</v>
-      </c>
-      <c r="W38" s="8">
-        <v>1</v>
+        <v>-0.75000000000000022</v>
+      </c>
+      <c r="W38" s="2">
+        <v>1.5</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.3">
@@ -27489,10 +27490,10 @@
         <v>0</v>
       </c>
       <c r="C39" s="2">
-        <v>0.1430555555555558</v>
+        <v>0.10000000000000039</v>
       </c>
       <c r="D39" s="2">
-        <v>8.6111111111110708E-2</v>
+        <v>0</v>
       </c>
       <c r="E39" s="2">
         <v>1</v>
@@ -27513,13 +27514,13 @@
         <v>0</v>
       </c>
       <c r="K39" s="2">
-        <v>8.4423209164204608E-17</v>
+        <v>6.7654215563095477E-17</v>
       </c>
       <c r="L39" s="2">
         <v>0</v>
       </c>
       <c r="M39" s="2">
-        <v>0</v>
+        <v>-2.0816681711721691E-17</v>
       </c>
       <c r="N39" s="2">
         <v>-0.5</v>
@@ -27540,16 +27541,16 @@
         <v>0</v>
       </c>
       <c r="T39" s="2">
-        <v>-1.229166666666667</v>
+        <v>-1.100000000000001</v>
       </c>
       <c r="U39" s="2">
-        <v>0.1145833333333333</v>
+        <v>5.0000000000000273E-2</v>
       </c>
       <c r="V39" s="8">
-        <v>-0.1145833333333333</v>
+        <v>-5.0000000000000273E-2</v>
       </c>
       <c r="W39" s="2">
-        <v>0.99999999999999989</v>
+        <v>1.100000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.3">
@@ -27631,10 +27632,10 @@
         <v>0</v>
       </c>
       <c r="C41" s="2">
-        <v>2.7777777777777769E-2</v>
+        <v>0.1</v>
       </c>
       <c r="D41" s="2">
-        <v>-0.14444444444444449</v>
+        <v>0</v>
       </c>
       <c r="E41" s="2">
         <v>0</v>
@@ -27655,13 +27656,13 @@
         <v>0</v>
       </c>
       <c r="K41" s="2">
-        <v>-4.6259292692714861E-18</v>
+        <v>1.387778780781446E-17</v>
       </c>
       <c r="L41" s="2">
-        <v>-1.387778780781446E-17</v>
+        <v>0</v>
       </c>
       <c r="M41" s="2">
-        <v>0</v>
+        <v>4.163336342344337E-17</v>
       </c>
       <c r="N41" s="2">
         <v>0</v>
@@ -27682,16 +27683,16 @@
         <v>0.5</v>
       </c>
       <c r="T41" s="2">
-        <v>-0.88333333333333341</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="U41" s="2">
-        <v>4.1666666666666657E-2</v>
+        <v>0.15</v>
       </c>
       <c r="V41" s="8">
-        <v>-4.1666666666666657E-2</v>
+        <v>-0.15</v>
       </c>
       <c r="W41" s="2">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.3">
@@ -27702,10 +27703,10 @@
         <v>0</v>
       </c>
       <c r="C42" s="2">
-        <v>0.1430555555555558</v>
+        <v>0.10000000000000039</v>
       </c>
       <c r="D42" s="2">
-        <v>8.6111111111110708E-2</v>
+        <v>0</v>
       </c>
       <c r="E42" s="2">
         <v>0</v>
@@ -27726,13 +27727,13 @@
         <v>0</v>
       </c>
       <c r="K42" s="2">
-        <v>8.4423209164204608E-17</v>
+        <v>6.7654215563095477E-17</v>
       </c>
       <c r="L42" s="2">
         <v>0</v>
       </c>
       <c r="M42" s="2">
-        <v>0</v>
+        <v>-2.0816681711721691E-17</v>
       </c>
       <c r="N42" s="2">
         <v>0.5</v>
@@ -27753,16 +27754,16 @@
         <v>0</v>
       </c>
       <c r="T42" s="2">
-        <v>-1.229166666666667</v>
+        <v>-1.100000000000001</v>
       </c>
       <c r="U42" s="2">
-        <v>0.1145833333333333</v>
+        <v>5.0000000000000273E-2</v>
       </c>
       <c r="V42" s="8">
-        <v>-0.1145833333333333</v>
+        <v>-5.0000000000000273E-2</v>
       </c>
       <c r="W42" s="2">
-        <v>0.99999999999999989</v>
+        <v>1.100000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.3">
@@ -27844,10 +27845,10 @@
         <v>0</v>
       </c>
       <c r="C44" s="2">
-        <v>2.7777777777777769E-2</v>
+        <v>0.1</v>
       </c>
       <c r="D44" s="2">
-        <v>-0.14444444444444449</v>
+        <v>0</v>
       </c>
       <c r="E44" s="2">
         <v>0</v>
@@ -27868,13 +27869,13 @@
         <v>1</v>
       </c>
       <c r="K44" s="2">
-        <v>-4.6259292692714861E-18</v>
+        <v>1.387778780781446E-17</v>
       </c>
       <c r="L44" s="2">
-        <v>-1.387778780781446E-17</v>
+        <v>0</v>
       </c>
       <c r="M44" s="2">
-        <v>0</v>
+        <v>4.163336342344337E-17</v>
       </c>
       <c r="N44" s="2">
         <v>0</v>
@@ -27895,16 +27896,16 @@
         <v>-0.5</v>
       </c>
       <c r="T44" s="2">
-        <v>-0.88333333333333341</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="U44" s="2">
-        <v>4.1666666666666657E-2</v>
+        <v>0.15</v>
       </c>
       <c r="V44" s="8">
-        <v>-4.1666666666666657E-2</v>
+        <v>-0.15</v>
       </c>
       <c r="W44" s="2">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.3">
@@ -27968,377 +27969,368 @@
       <c r="U46">
         <v>19</v>
       </c>
-      <c r="X46" s="6" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>0</v>
       </c>
-      <c r="B47" s="2">
-        <v>1</v>
-      </c>
-      <c r="C47" s="2">
-        <v>0.33333333333333492</v>
-      </c>
-      <c r="D47" s="2">
-        <v>-0.3333333333333357</v>
-      </c>
-      <c r="E47" s="2">
-        <v>0</v>
-      </c>
-      <c r="F47" s="2">
-        <v>0</v>
-      </c>
-      <c r="G47" s="2">
-        <v>0</v>
-      </c>
-      <c r="H47" s="2">
-        <v>0</v>
-      </c>
-      <c r="I47" s="2">
-        <v>0</v>
-      </c>
-      <c r="J47" s="2">
-        <v>0</v>
-      </c>
-      <c r="K47" s="2">
-        <v>4.7184478546569143E-16</v>
-      </c>
-      <c r="L47" s="2">
-        <v>-3.8857805861880439E-16</v>
-      </c>
-      <c r="M47" s="2">
-        <v>0</v>
-      </c>
-      <c r="N47" s="2">
-        <v>0</v>
-      </c>
-      <c r="O47" s="2">
-        <v>0</v>
-      </c>
-      <c r="P47" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="2">
-        <v>0</v>
-      </c>
-      <c r="R47" s="2">
-        <v>0</v>
-      </c>
-      <c r="S47" s="2">
-        <v>0</v>
-      </c>
-      <c r="T47" s="2">
-        <v>-0.99999999999999889</v>
-      </c>
-      <c r="U47" s="2">
-        <v>0</v>
-      </c>
-      <c r="V47" s="2">
-        <v>0</v>
-      </c>
-      <c r="W47" s="2">
-        <v>0.999999999999999</v>
-      </c>
-      <c r="X47">
-        <v>2.9999999999999831</v>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>0.50000000000000178</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>3.1918911957973251E-16</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-1.110223024625157E-16</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>-1.500000000000002</v>
+      </c>
+      <c r="U47">
+        <v>0.25000000000000128</v>
+      </c>
+      <c r="V47">
+        <v>-0.25000000000000128</v>
+      </c>
+      <c r="W47">
+        <v>0.99999999999999922</v>
       </c>
       <c r="Y47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>11</v>
-      </c>
-      <c r="B48" s="2">
-        <v>0</v>
-      </c>
-      <c r="C48" s="2">
-        <v>3.25</v>
-      </c>
-      <c r="D48" s="2">
-        <v>-4.5</v>
-      </c>
-      <c r="E48" s="2">
-        <v>0</v>
-      </c>
-      <c r="F48" s="2">
-        <v>0</v>
-      </c>
-      <c r="G48" s="2">
-        <v>0</v>
-      </c>
-      <c r="H48" s="2">
-        <v>0</v>
-      </c>
-      <c r="I48" s="2">
-        <v>0</v>
-      </c>
-      <c r="J48" s="2">
-        <v>0</v>
-      </c>
-      <c r="K48" s="2">
-        <v>0.99999999999999922</v>
-      </c>
-      <c r="L48" s="2">
-        <v>-1.999999999999998</v>
-      </c>
-      <c r="M48" s="2">
-        <v>1</v>
-      </c>
-      <c r="N48" s="2">
-        <v>0</v>
-      </c>
-      <c r="O48" s="2">
-        <v>0</v>
-      </c>
-      <c r="P48" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="2">
-        <v>0</v>
-      </c>
-      <c r="R48" s="2">
-        <v>0</v>
-      </c>
-      <c r="S48" s="2">
-        <v>0</v>
-      </c>
-      <c r="T48" s="2">
-        <v>2</v>
-      </c>
-      <c r="U48" s="2">
-        <v>0</v>
-      </c>
-      <c r="V48" s="2">
-        <v>0</v>
-      </c>
-      <c r="W48" s="2">
-        <v>-1.999999999999998</v>
+        <v>10</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>-2.666666666666667</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>-0.50000000000000056</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>-0.500000000000001</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="U48">
+        <v>-1.833333333333333</v>
+      </c>
+      <c r="V48">
+        <v>1.833333333333333</v>
+      </c>
+      <c r="W48">
+        <v>0.99999999999999911</v>
       </c>
       <c r="X48">
-        <v>-0.61538461538461475</v>
+        <v>0.54545454545454508</v>
       </c>
       <c r="Y48">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>20</v>
-      </c>
-      <c r="B49" s="2">
-        <v>0</v>
-      </c>
-      <c r="C49" s="2">
-        <v>-0.66666666666666596</v>
-      </c>
-      <c r="D49" s="2">
-        <v>-1.3333333333333339</v>
-      </c>
-      <c r="E49" s="2">
-        <v>0</v>
-      </c>
-      <c r="F49" s="2">
-        <v>0</v>
-      </c>
-      <c r="G49" s="2">
-        <v>0</v>
-      </c>
-      <c r="H49" s="2">
-        <v>0</v>
-      </c>
-      <c r="I49" s="2">
-        <v>0</v>
-      </c>
-      <c r="J49" s="2">
-        <v>0</v>
-      </c>
-      <c r="K49" s="2">
-        <v>1.110223024625154E-16</v>
-      </c>
-      <c r="L49" s="2">
-        <v>-6.6613381477509333E-16</v>
-      </c>
-      <c r="M49" s="2">
-        <v>0</v>
-      </c>
-      <c r="N49" s="2">
-        <v>0</v>
-      </c>
-      <c r="O49" s="2">
-        <v>0</v>
-      </c>
-      <c r="P49" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="2">
-        <v>0</v>
-      </c>
-      <c r="R49" s="2">
-        <v>0</v>
-      </c>
-      <c r="S49" s="2">
-        <v>0</v>
-      </c>
-      <c r="T49" s="2">
-        <v>2</v>
-      </c>
-      <c r="U49" s="2">
-        <v>-1</v>
-      </c>
-      <c r="V49" s="2">
-        <v>1</v>
-      </c>
-      <c r="W49" s="2">
-        <v>-6.6613381477509333E-16</v>
+        <v>10</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0.50000000000000044</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>1.6653345369377351E-16</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>2.4980018054066022E-16</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>-1.5</v>
+      </c>
+      <c r="U49">
+        <v>0.75000000000000022</v>
+      </c>
+      <c r="V49">
+        <v>-0.75000000000000022</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>3</v>
       </c>
-      <c r="B50" s="2">
-        <v>0</v>
-      </c>
-      <c r="C50" s="2">
-        <v>6.6666666666666985E-2</v>
-      </c>
-      <c r="D50" s="2">
-        <v>-6.6666666666667193E-2</v>
-      </c>
-      <c r="E50" s="2">
-        <v>1</v>
-      </c>
-      <c r="F50" s="2">
-        <v>0</v>
-      </c>
-      <c r="G50" s="2">
-        <v>0</v>
-      </c>
-      <c r="H50" s="2">
-        <v>0</v>
-      </c>
-      <c r="I50" s="2">
-        <v>0</v>
-      </c>
-      <c r="J50" s="2">
-        <v>0</v>
-      </c>
-      <c r="K50" s="2">
-        <v>9.7144514654701173E-17</v>
-      </c>
-      <c r="L50" s="2">
-        <v>-7.6327832942979438E-17</v>
-      </c>
-      <c r="M50" s="2">
-        <v>0</v>
-      </c>
-      <c r="N50" s="2">
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0.10000000000000039</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>6.7654215563095477E-17</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>-2.0816681711721691E-17</v>
+      </c>
+      <c r="N50">
         <v>-0.5</v>
       </c>
-      <c r="O50" s="2">
+      <c r="O50">
         <v>0.5</v>
       </c>
-      <c r="P50" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="2">
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
         <v>0.5</v>
       </c>
-      <c r="R50" s="2">
+      <c r="R50">
         <v>-0.5</v>
       </c>
-      <c r="S50" s="2">
-        <v>0</v>
-      </c>
-      <c r="T50" s="2">
-        <v>-0.99999999999999978</v>
-      </c>
-      <c r="U50" s="2">
-        <v>-1.387778780781446E-17</v>
-      </c>
-      <c r="V50" s="2">
-        <v>1.387778780781446E-17</v>
-      </c>
-      <c r="W50" s="2">
-        <v>0.99999999999999978</v>
-      </c>
-      <c r="X50">
-        <v>14.999999999999931</v>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>-1.100000000000001</v>
+      </c>
+      <c r="U50">
+        <v>5.0000000000000273E-2</v>
+      </c>
+      <c r="V50">
+        <v>-5.0000000000000273E-2</v>
+      </c>
+      <c r="W50">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>4</v>
       </c>
-      <c r="B51" s="2">
-        <v>0</v>
-      </c>
-      <c r="C51" s="2">
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
         <v>-0.2</v>
       </c>
-      <c r="D51" s="2">
-        <v>0</v>
-      </c>
-      <c r="E51" s="2">
-        <v>0</v>
-      </c>
-      <c r="F51" s="2">
-        <v>1</v>
-      </c>
-      <c r="G51" s="2">
-        <v>0</v>
-      </c>
-      <c r="H51" s="2">
-        <v>0</v>
-      </c>
-      <c r="I51" s="2">
-        <v>0</v>
-      </c>
-      <c r="J51" s="2">
-        <v>0</v>
-      </c>
-      <c r="K51" s="2">
-        <v>0</v>
-      </c>
-      <c r="L51" s="2">
-        <v>0</v>
-      </c>
-      <c r="M51" s="2">
-        <v>0</v>
-      </c>
-      <c r="N51" s="2">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
         <v>0.5</v>
       </c>
-      <c r="O51" s="2">
+      <c r="O51">
         <v>-1</v>
       </c>
-      <c r="P51" s="2">
+      <c r="P51">
         <v>0.5</v>
       </c>
-      <c r="Q51" s="2">
+      <c r="Q51">
         <v>-0.5</v>
       </c>
-      <c r="R51" s="2">
-        <v>1</v>
-      </c>
-      <c r="S51" s="2">
+      <c r="R51">
+        <v>1</v>
+      </c>
+      <c r="S51">
         <v>-0.5</v>
       </c>
-      <c r="T51" s="2">
+      <c r="T51">
         <v>-0.8</v>
       </c>
-      <c r="U51" s="2">
-        <v>0</v>
-      </c>
-      <c r="V51" s="2">
-        <v>0</v>
-      </c>
-      <c r="W51" s="2">
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
         <v>0.8</v>
       </c>
     </row>
@@ -28346,218 +28338,212 @@
       <c r="A52">
         <v>5</v>
       </c>
-      <c r="B52" s="2">
-        <v>0</v>
-      </c>
-      <c r="C52" s="2">
-        <v>1.7347234759768071E-17</v>
-      </c>
-      <c r="D52" s="2">
-        <v>-0.20000000000000009</v>
-      </c>
-      <c r="E52" s="2">
-        <v>0</v>
-      </c>
-      <c r="F52" s="2">
-        <v>0</v>
-      </c>
-      <c r="G52" s="2">
-        <v>1</v>
-      </c>
-      <c r="H52" s="2">
-        <v>0</v>
-      </c>
-      <c r="I52" s="2">
-        <v>0</v>
-      </c>
-      <c r="J52" s="2">
-        <v>0</v>
-      </c>
-      <c r="K52" s="2">
-        <v>-1.0785207688568519E-32</v>
-      </c>
-      <c r="L52" s="2">
-        <v>-4.1633363423443352E-17</v>
-      </c>
-      <c r="M52" s="2">
-        <v>0</v>
-      </c>
-      <c r="N52" s="2">
-        <v>0</v>
-      </c>
-      <c r="O52" s="2">
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0.1</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>1.387778780781446E-17</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>4.163336342344337E-17</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
         <v>0.5</v>
       </c>
-      <c r="P52" s="2">
+      <c r="P52">
         <v>-0.5</v>
       </c>
-      <c r="Q52" s="2">
-        <v>0</v>
-      </c>
-      <c r="R52" s="2">
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
         <v>-0.5</v>
       </c>
-      <c r="S52" s="2">
+      <c r="S52">
         <v>0.5</v>
       </c>
-      <c r="T52" s="2">
-        <v>-0.8</v>
-      </c>
-      <c r="U52" s="2">
-        <v>0</v>
-      </c>
-      <c r="V52" s="2">
-        <v>0</v>
-      </c>
-      <c r="W52" s="2">
+      <c r="T52">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="U52">
+        <v>0.15</v>
+      </c>
+      <c r="V52">
+        <v>-0.15</v>
+      </c>
+      <c r="W52">
         <v>0.8</v>
-      </c>
-      <c r="X52">
-        <v>4.611686018427388E+16</v>
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>6</v>
       </c>
-      <c r="B53" s="2">
-        <v>0</v>
-      </c>
-      <c r="C53" s="2">
-        <v>6.6666666666666985E-2</v>
-      </c>
-      <c r="D53" s="2">
-        <v>-6.6666666666667193E-2</v>
-      </c>
-      <c r="E53" s="2">
-        <v>0</v>
-      </c>
-      <c r="F53" s="2">
-        <v>0</v>
-      </c>
-      <c r="G53" s="2">
-        <v>0</v>
-      </c>
-      <c r="H53" s="2">
-        <v>1</v>
-      </c>
-      <c r="I53" s="2">
-        <v>0</v>
-      </c>
-      <c r="J53" s="2">
-        <v>0</v>
-      </c>
-      <c r="K53" s="2">
-        <v>9.7144514654701173E-17</v>
-      </c>
-      <c r="L53" s="2">
-        <v>-7.6327832942979438E-17</v>
-      </c>
-      <c r="M53" s="2">
-        <v>0</v>
-      </c>
-      <c r="N53" s="2">
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0.10000000000000039</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>6.7654215563095477E-17</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>-2.0816681711721691E-17</v>
+      </c>
+      <c r="N53">
         <v>0.5</v>
       </c>
-      <c r="O53" s="2">
+      <c r="O53">
         <v>-0.5</v>
       </c>
-      <c r="P53" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="2">
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
         <v>-0.5</v>
       </c>
-      <c r="R53" s="2">
+      <c r="R53">
         <v>0.5</v>
       </c>
-      <c r="S53" s="2">
-        <v>0</v>
-      </c>
-      <c r="T53" s="2">
-        <v>-0.99999999999999978</v>
-      </c>
-      <c r="U53" s="2">
-        <v>-1.387778780781446E-17</v>
-      </c>
-      <c r="V53" s="2">
-        <v>1.387778780781446E-17</v>
-      </c>
-      <c r="W53" s="2">
-        <v>0.99999999999999978</v>
-      </c>
-      <c r="X53">
-        <v>14.999999999999931</v>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>-1.100000000000001</v>
+      </c>
+      <c r="U53">
+        <v>5.0000000000000273E-2</v>
+      </c>
+      <c r="V53">
+        <v>-5.0000000000000273E-2</v>
+      </c>
+      <c r="W53">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>7</v>
       </c>
-      <c r="B54" s="2">
-        <v>0</v>
-      </c>
-      <c r="C54" s="2">
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
         <v>-0.2</v>
       </c>
-      <c r="D54" s="2">
-        <v>0</v>
-      </c>
-      <c r="E54" s="2">
-        <v>0</v>
-      </c>
-      <c r="F54" s="2">
-        <v>0</v>
-      </c>
-      <c r="G54" s="2">
-        <v>0</v>
-      </c>
-      <c r="H54" s="2">
-        <v>0</v>
-      </c>
-      <c r="I54" s="2">
-        <v>1</v>
-      </c>
-      <c r="J54" s="2">
-        <v>0</v>
-      </c>
-      <c r="K54" s="2">
-        <v>0</v>
-      </c>
-      <c r="L54" s="2">
-        <v>0</v>
-      </c>
-      <c r="M54" s="2">
-        <v>0</v>
-      </c>
-      <c r="N54" s="2">
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
         <v>-0.5</v>
       </c>
-      <c r="O54" s="2">
-        <v>1</v>
-      </c>
-      <c r="P54" s="2">
+      <c r="O54">
+        <v>1</v>
+      </c>
+      <c r="P54">
         <v>-0.5</v>
       </c>
-      <c r="Q54" s="2">
+      <c r="Q54">
         <v>0.5</v>
       </c>
-      <c r="R54" s="2">
+      <c r="R54">
         <v>-1</v>
       </c>
-      <c r="S54" s="2">
+      <c r="S54">
         <v>0.5</v>
       </c>
-      <c r="T54" s="2">
+      <c r="T54">
         <v>-0.8</v>
       </c>
-      <c r="U54" s="2">
-        <v>0</v>
-      </c>
-      <c r="V54" s="2">
-        <v>0</v>
-      </c>
-      <c r="W54" s="2">
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
         <v>0.8</v>
       </c>
     </row>
@@ -28565,74 +28551,71 @@
       <c r="A55">
         <v>8</v>
       </c>
-      <c r="B55" s="2">
-        <v>0</v>
-      </c>
-      <c r="C55" s="2">
-        <v>1.7347234759768071E-17</v>
-      </c>
-      <c r="D55" s="2">
-        <v>-0.20000000000000009</v>
-      </c>
-      <c r="E55" s="2">
-        <v>0</v>
-      </c>
-      <c r="F55" s="2">
-        <v>0</v>
-      </c>
-      <c r="G55" s="2">
-        <v>0</v>
-      </c>
-      <c r="H55" s="2">
-        <v>0</v>
-      </c>
-      <c r="I55" s="2">
-        <v>0</v>
-      </c>
-      <c r="J55" s="2">
-        <v>1</v>
-      </c>
-      <c r="K55" s="2">
-        <v>-1.0785207688568519E-32</v>
-      </c>
-      <c r="L55" s="2">
-        <v>-4.1633363423443352E-17</v>
-      </c>
-      <c r="M55" s="2">
-        <v>0</v>
-      </c>
-      <c r="N55" s="2">
-        <v>0</v>
-      </c>
-      <c r="O55" s="2">
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0.1</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>1.387778780781446E-17</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>4.163336342344337E-17</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
         <v>-0.5</v>
       </c>
-      <c r="P55" s="2">
+      <c r="P55">
         <v>0.5</v>
       </c>
-      <c r="Q55" s="2">
-        <v>0</v>
-      </c>
-      <c r="R55" s="2">
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
         <v>0.5</v>
       </c>
-      <c r="S55" s="2">
+      <c r="S55">
         <v>-0.5</v>
       </c>
-      <c r="T55" s="2">
-        <v>-0.8</v>
-      </c>
-      <c r="U55" s="2">
-        <v>0</v>
-      </c>
-      <c r="V55" s="2">
-        <v>0</v>
-      </c>
-      <c r="W55" s="2">
+      <c r="T55">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="U55">
+        <v>0.15</v>
+      </c>
+      <c r="V55">
+        <v>-0.15</v>
+      </c>
+      <c r="W55">
         <v>0.8</v>
-      </c>
-      <c r="X55">
-        <v>4.611686018427388E+16</v>
       </c>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.3">
@@ -28699,16 +28682,16 @@
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B58">
-        <v>2.9999999999999858</v>
+        <v>1</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>0.13636363636363619</v>
       </c>
       <c r="D58">
-        <v>-1.000000000000002</v>
+        <v>0</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -28729,13 +28712,13 @@
         <v>0</v>
       </c>
       <c r="K58">
-        <v>1.4155343563970671E-15</v>
+        <v>-6.8181818181818302E-2</v>
       </c>
       <c r="L58">
-        <v>-1.1657341758564081E-15</v>
+        <v>0.1363636363636371</v>
       </c>
       <c r="M58">
-        <v>0</v>
+        <v>-6.8181818181818787E-2</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -28756,7 +28739,7 @@
         <v>0</v>
       </c>
       <c r="T58">
-        <v>-2.9999999999999818</v>
+        <v>-1.136363636363636</v>
       </c>
       <c r="U58">
         <v>0</v>
@@ -28765,27 +28748,27 @@
         <v>0</v>
       </c>
       <c r="W58">
-        <v>2.9999999999999831</v>
+        <v>1.136363636363636</v>
       </c>
       <c r="X58">
-        <v>2119341001115526</v>
+        <v>8.3333333333333428</v>
       </c>
       <c r="Y58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B59">
-        <v>-9.7499999999999538</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>-4.4408920985006262E-16</v>
+        <v>-1.454545454545455</v>
       </c>
       <c r="D59">
-        <v>-1.249999999999992</v>
+        <v>0</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -28806,13 +28789,13 @@
         <v>0</v>
       </c>
       <c r="K59">
-        <v>0.99999999999999467</v>
+        <v>-0.2727272727272731</v>
       </c>
       <c r="L59">
-        <v>-1.999999999999994</v>
+        <v>0.54545454545454553</v>
       </c>
       <c r="M59">
-        <v>1</v>
+        <v>-0.27272727272727332</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -28833,36 +28816,33 @@
         <v>0</v>
       </c>
       <c r="T59">
-        <v>11.74999999999994</v>
+        <v>1.454545454545455</v>
       </c>
       <c r="U59">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W59">
-        <v>-11.74999999999994</v>
-      </c>
-      <c r="X59">
-        <v>-11.750000000000011</v>
+        <v>0.54545454545454508</v>
       </c>
       <c r="Y59">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B60">
-        <v>1.999999999999988</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>-0.59090909090909105</v>
       </c>
       <c r="D60">
-        <v>-2.0000000000000022</v>
+        <v>1</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -28883,13 +28863,13 @@
         <v>0</v>
       </c>
       <c r="K60">
-        <v>1.054711873393893E-15</v>
+        <v>-0.2045454545454547</v>
       </c>
       <c r="L60">
-        <v>-1.443289932012698E-15</v>
+        <v>0.40909090909090928</v>
       </c>
       <c r="M60">
-        <v>0</v>
+        <v>-0.20454545454545481</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -28910,19 +28890,16 @@
         <v>0</v>
       </c>
       <c r="T60">
-        <v>1.4432899320127041E-14</v>
+        <v>-0.40909090909090889</v>
       </c>
       <c r="U60">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W60">
-        <v>1.999999999999986</v>
-      </c>
-      <c r="X60">
-        <v>1896252474682311</v>
+        <v>0.40909090909090889</v>
       </c>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.3">
@@ -28930,13 +28907,13 @@
         <v>3</v>
       </c>
       <c r="B61">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>2.727272727272724E-2</v>
       </c>
       <c r="D61">
-        <v>-5.5511151231257827E-17</v>
+        <v>0</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -28957,13 +28934,13 @@
         <v>0</v>
       </c>
       <c r="K61">
-        <v>2.7755575615628938E-18</v>
+        <v>-1.363636363636366E-2</v>
       </c>
       <c r="L61">
-        <v>1.3877787807814531E-18</v>
+        <v>2.7272727272727431E-2</v>
       </c>
       <c r="M61">
-        <v>0</v>
+        <v>-1.3636363636363761E-2</v>
       </c>
       <c r="N61">
         <v>-0.5</v>
@@ -28984,19 +28961,19 @@
         <v>0</v>
       </c>
       <c r="T61">
-        <v>-0.8</v>
+        <v>-1.0272727272727269</v>
       </c>
       <c r="U61">
-        <v>-1.387778780781446E-17</v>
+        <v>-6.9388939039072284E-18</v>
       </c>
       <c r="V61">
-        <v>1.387778780781446E-17</v>
+        <v>6.9388939039072284E-18</v>
       </c>
       <c r="W61">
-        <v>0.8</v>
+        <v>1.0272727272727269</v>
       </c>
       <c r="X61">
-        <v>2.8823037615171149E+17</v>
+        <v>37.666666666666707</v>
       </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.3">
@@ -29004,13 +28981,13 @@
         <v>4</v>
       </c>
       <c r="B62">
-        <v>0.5999999999999972</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="D62">
-        <v>-0.20000000000000051</v>
+        <v>0</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -29031,10 +29008,10 @@
         <v>0</v>
       </c>
       <c r="K62">
-        <v>2.8310687127941352E-16</v>
+        <v>0</v>
       </c>
       <c r="L62">
-        <v>-2.331468351712816E-16</v>
+        <v>0</v>
       </c>
       <c r="M62">
         <v>0</v>
@@ -29058,7 +29035,7 @@
         <v>-0.5</v>
       </c>
       <c r="T62">
-        <v>-1.399999999999997</v>
+        <v>-0.8</v>
       </c>
       <c r="U62">
         <v>0</v>
@@ -29067,10 +29044,7 @@
         <v>0</v>
       </c>
       <c r="W62">
-        <v>1.399999999999997</v>
-      </c>
-      <c r="X62">
-        <v>4945129002602910</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.3">
@@ -29078,13 +29052,13 @@
         <v>5</v>
       </c>
       <c r="B63">
-        <v>-5.2041704279303972E-17</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>-0.11818181818181819</v>
       </c>
       <c r="D63">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -29105,13 +29079,13 @@
         <v>0</v>
       </c>
       <c r="K63">
-        <v>-3.5340814479505657E-32</v>
+        <v>-4.090909090909095E-2</v>
       </c>
       <c r="L63">
-        <v>-4.1633363423443327E-17</v>
+        <v>8.1818181818181845E-2</v>
       </c>
       <c r="M63">
-        <v>0</v>
+        <v>-4.0909090909090957E-2</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -29132,16 +29106,16 @@
         <v>0.5</v>
       </c>
       <c r="T63">
-        <v>-0.8</v>
+        <v>-0.88181818181818183</v>
       </c>
       <c r="U63">
-        <v>0</v>
+        <v>-2.775557561562891E-17</v>
       </c>
       <c r="V63">
-        <v>0</v>
+        <v>2.775557561562891E-17</v>
       </c>
       <c r="W63">
-        <v>0.8</v>
+        <v>0.88181818181818183</v>
       </c>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.3">
@@ -29149,13 +29123,13 @@
         <v>6</v>
       </c>
       <c r="B64">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>2.727272727272724E-2</v>
       </c>
       <c r="D64">
-        <v>-5.5511151231257827E-17</v>
+        <v>0</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -29176,13 +29150,13 @@
         <v>0</v>
       </c>
       <c r="K64">
-        <v>2.7755575615628938E-18</v>
+        <v>-1.363636363636366E-2</v>
       </c>
       <c r="L64">
-        <v>1.3877787807814531E-18</v>
+        <v>2.7272727272727431E-2</v>
       </c>
       <c r="M64">
-        <v>0</v>
+        <v>-1.3636363636363761E-2</v>
       </c>
       <c r="N64">
         <v>0.5</v>
@@ -29203,19 +29177,19 @@
         <v>0</v>
       </c>
       <c r="T64">
-        <v>-0.8</v>
+        <v>-1.0272727272727269</v>
       </c>
       <c r="U64">
-        <v>-1.387778780781446E-17</v>
+        <v>-6.9388939039072284E-18</v>
       </c>
       <c r="V64">
-        <v>1.387778780781446E-17</v>
+        <v>6.9388939039072284E-18</v>
       </c>
       <c r="W64">
-        <v>0.8</v>
+        <v>1.0272727272727269</v>
       </c>
       <c r="X64">
-        <v>2.8823037615171149E+17</v>
+        <v>37.666666666666707</v>
       </c>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.3">
@@ -29223,13 +29197,13 @@
         <v>7</v>
       </c>
       <c r="B65">
-        <v>0.5999999999999972</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="D65">
-        <v>-0.20000000000000051</v>
+        <v>0</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -29250,10 +29224,10 @@
         <v>0</v>
       </c>
       <c r="K65">
-        <v>2.8310687127941352E-16</v>
+        <v>0</v>
       </c>
       <c r="L65">
-        <v>-2.331468351712816E-16</v>
+        <v>0</v>
       </c>
       <c r="M65">
         <v>0</v>
@@ -29277,7 +29251,7 @@
         <v>0.5</v>
       </c>
       <c r="T65">
-        <v>-1.399999999999997</v>
+        <v>-0.8</v>
       </c>
       <c r="U65">
         <v>0</v>
@@ -29286,10 +29260,7 @@
         <v>0</v>
       </c>
       <c r="W65">
-        <v>1.399999999999997</v>
-      </c>
-      <c r="X65">
-        <v>4945129002602910</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.3">
@@ -29297,13 +29268,13 @@
         <v>8</v>
       </c>
       <c r="B66">
-        <v>-5.2041704279303972E-17</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>-0.11818181818181819</v>
       </c>
       <c r="D66">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -29324,13 +29295,13 @@
         <v>1</v>
       </c>
       <c r="K66">
-        <v>-3.5340814479505657E-32</v>
+        <v>-4.090909090909095E-2</v>
       </c>
       <c r="L66">
-        <v>-4.1633363423443327E-17</v>
+        <v>8.1818181818181845E-2</v>
       </c>
       <c r="M66">
-        <v>0</v>
+        <v>-4.0909090909090957E-2</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -29351,16 +29322,16 @@
         <v>-0.5</v>
       </c>
       <c r="T66">
-        <v>-0.8</v>
+        <v>-0.88181818181818183</v>
       </c>
       <c r="U66">
-        <v>0</v>
+        <v>-2.775557561562891E-17</v>
       </c>
       <c r="V66">
-        <v>0</v>
+        <v>2.775557561562891E-17</v>
       </c>
       <c r="W66">
-        <v>0.8</v>
+        <v>0.88181818181818183</v>
       </c>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.3">
@@ -29430,13 +29401,13 @@
         <v>1</v>
       </c>
       <c r="B69">
-        <v>0.31578947368421018</v>
+        <v>7.3333333333333428</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
       <c r="D69">
-        <v>1.6842105263157909</v>
+        <v>0</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -29457,13 +29428,13 @@
         <v>0</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>-0.50000000000000155</v>
       </c>
       <c r="L69">
-        <v>7.7131283816063471E-16</v>
+        <v>1.000000000000006</v>
       </c>
       <c r="M69">
-        <v>0</v>
+        <v>-0.50000000000000511</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -29484,33 +29455,33 @@
         <v>0</v>
       </c>
       <c r="T69">
-        <v>-3.0000000000000022</v>
+        <v>-8.3333333333333428</v>
       </c>
       <c r="U69">
-        <v>1.342105263157896</v>
+        <v>0</v>
       </c>
       <c r="V69">
-        <v>-1.342105263157896</v>
+        <v>0</v>
       </c>
       <c r="W69">
-        <v>0.31578947368421062</v>
+        <v>8.3333333333333428</v>
       </c>
       <c r="Y69">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B70">
-        <v>-1896252474682314</v>
+        <v>10.66666666666668</v>
       </c>
       <c r="C70">
-        <v>-4.4408920985006262E-16</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>1896252474682315</v>
+        <v>0</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -29531,13 +29502,13 @@
         <v>0</v>
       </c>
       <c r="K70">
-        <v>-1.110223024625157E-16</v>
+        <v>-1.0000000000000031</v>
       </c>
       <c r="L70">
-        <v>-0.63157894736842057</v>
+        <v>2.0000000000000102</v>
       </c>
       <c r="M70">
-        <v>1</v>
+        <v>-1.000000000000008</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -29558,36 +29529,33 @@
         <v>0</v>
       </c>
       <c r="T70">
-        <v>-1.934210526315852</v>
+        <v>-10.66666666666668</v>
       </c>
       <c r="U70">
-        <v>948126237341157.38</v>
+        <v>-1</v>
       </c>
       <c r="V70">
-        <v>-948126237341157.38</v>
+        <v>1</v>
       </c>
       <c r="W70">
-        <v>-1896252474682313</v>
-      </c>
-      <c r="X70">
-        <v>-1896252474682313</v>
+        <v>12.66666666666668</v>
       </c>
       <c r="Y70">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B71">
-        <v>1896252474682314</v>
+        <v>4.3333333333333401</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
       <c r="D71">
-        <v>-1896252474682326</v>
+        <v>1</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -29608,13 +29576,13 @@
         <v>0</v>
       </c>
       <c r="K71">
-        <v>1</v>
+        <v>-0.50000000000000111</v>
       </c>
       <c r="L71">
-        <v>-1.368421052631581</v>
+        <v>1.000000000000004</v>
       </c>
       <c r="M71">
-        <v>0</v>
+        <v>-0.50000000000000333</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -29635,16 +29603,16 @@
         <v>0</v>
       </c>
       <c r="T71">
-        <v>13.684210526315869</v>
+        <v>-5.3333333333333401</v>
       </c>
       <c r="U71">
-        <v>-948126237341162.38</v>
+        <v>0</v>
       </c>
       <c r="V71">
-        <v>948126237341162.38</v>
+        <v>0</v>
       </c>
       <c r="W71">
-        <v>1896252474682311</v>
+        <v>5.3333333333333401</v>
       </c>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.3">
@@ -29652,13 +29620,13 @@
         <v>3</v>
       </c>
       <c r="B72">
-        <v>-0.2052631578947369</v>
+        <v>-0.2</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72">
-        <v>5.2631578947368264E-3</v>
+        <v>0</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -29679,13 +29647,13 @@
         <v>0</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>1.7347234759768071E-18</v>
       </c>
       <c r="L72">
-        <v>5.1859101808148921E-18</v>
+        <v>1.0408340855860839E-17</v>
       </c>
       <c r="M72">
-        <v>0</v>
+        <v>-1.7347234759768071E-18</v>
       </c>
       <c r="N72">
         <v>-0.5</v>
@@ -29709,13 +29677,13 @@
         <v>-0.8</v>
       </c>
       <c r="U72">
-        <v>2.631578947368424E-3</v>
+        <v>-6.9388939039072284E-18</v>
       </c>
       <c r="V72">
-        <v>-2.631578947368424E-3</v>
+        <v>6.9388939039072284E-18</v>
       </c>
       <c r="W72">
-        <v>0.79473684210526319</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.3">
@@ -29723,13 +29691,13 @@
         <v>4</v>
       </c>
       <c r="B73">
-        <v>6.315789473684208E-2</v>
+        <v>1.466666666666669</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73">
-        <v>0.33684210526315822</v>
+        <v>0</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -29750,13 +29718,13 @@
         <v>0</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>-0.1000000000000003</v>
       </c>
       <c r="L73">
-        <v>1.54262567632127E-16</v>
+        <v>0.20000000000000129</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>-0.100000000000001</v>
       </c>
       <c r="N73">
         <v>0.5</v>
@@ -29777,16 +29745,16 @@
         <v>-0.5</v>
       </c>
       <c r="T73">
-        <v>-1.4</v>
+        <v>-2.466666666666669</v>
       </c>
       <c r="U73">
-        <v>0.26842105263157912</v>
+        <v>0</v>
       </c>
       <c r="V73">
-        <v>-0.26842105263157912</v>
+        <v>0</v>
       </c>
       <c r="W73">
-        <v>0.86315789473684212</v>
+        <v>2.466666666666669</v>
       </c>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.3">
@@ -29794,13 +29762,13 @@
         <v>5</v>
       </c>
       <c r="B74">
-        <v>1.497340263474718E-17</v>
+        <v>0.86666666666666803</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74">
-        <v>-0.20000000000000009</v>
+        <v>0</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -29821,13 +29789,13 @@
         <v>0</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>-0.1000000000000002</v>
       </c>
       <c r="L74">
-        <v>-4.1633363423443383E-17</v>
+        <v>0.20000000000000079</v>
       </c>
       <c r="M74">
-        <v>0</v>
+        <v>-0.1000000000000007</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -29848,16 +29816,16 @@
         <v>0.5</v>
       </c>
       <c r="T74">
-        <v>-0.8</v>
+        <v>-1.866666666666668</v>
       </c>
       <c r="U74">
-        <v>-3.3507553457025772E-17</v>
+        <v>-2.775557561562891E-17</v>
       </c>
       <c r="V74">
-        <v>3.3507553457025772E-17</v>
+        <v>2.775557561562891E-17</v>
       </c>
       <c r="W74">
-        <v>0.80000000000000016</v>
+        <v>1.866666666666668</v>
       </c>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.3">
@@ -29865,13 +29833,13 @@
         <v>6</v>
       </c>
       <c r="B75">
-        <v>-0.2052631578947369</v>
+        <v>-0.2</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75">
-        <v>5.2631578947368264E-3</v>
+        <v>0</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -29892,13 +29860,13 @@
         <v>0</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>1.7347234759768071E-18</v>
       </c>
       <c r="L75">
-        <v>5.1859101808148921E-18</v>
+        <v>1.0408340855860839E-17</v>
       </c>
       <c r="M75">
-        <v>0</v>
+        <v>-1.7347234759768071E-18</v>
       </c>
       <c r="N75">
         <v>0.5</v>
@@ -29922,13 +29890,13 @@
         <v>-0.8</v>
       </c>
       <c r="U75">
-        <v>2.631578947368424E-3</v>
+        <v>-6.9388939039072284E-18</v>
       </c>
       <c r="V75">
-        <v>-2.631578947368424E-3</v>
+        <v>6.9388939039072284E-18</v>
       </c>
       <c r="W75">
-        <v>0.79473684210526319</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.3">
@@ -29936,13 +29904,13 @@
         <v>7</v>
       </c>
       <c r="B76">
-        <v>6.315789473684208E-2</v>
+        <v>1.466666666666669</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76">
-        <v>0.33684210526315822</v>
+        <v>0</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -29963,13 +29931,13 @@
         <v>0</v>
       </c>
       <c r="K76">
-        <v>0</v>
+        <v>-0.1000000000000003</v>
       </c>
       <c r="L76">
-        <v>1.54262567632127E-16</v>
+        <v>0.20000000000000129</v>
       </c>
       <c r="M76">
-        <v>0</v>
+        <v>-0.100000000000001</v>
       </c>
       <c r="N76">
         <v>-0.5</v>
@@ -29990,16 +29958,16 @@
         <v>0.5</v>
       </c>
       <c r="T76">
-        <v>-1.4</v>
+        <v>-2.466666666666669</v>
       </c>
       <c r="U76">
-        <v>0.26842105263157912</v>
+        <v>0</v>
       </c>
       <c r="V76">
-        <v>-0.26842105263157912</v>
+        <v>0</v>
       </c>
       <c r="W76">
-        <v>0.86315789473684212</v>
+        <v>2.466666666666669</v>
       </c>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.3">
@@ -30007,13 +29975,13 @@
         <v>8</v>
       </c>
       <c r="B77">
-        <v>1.497340263474718E-17</v>
+        <v>0.86666666666666803</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77">
-        <v>-0.20000000000000009</v>
+        <v>0</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -30034,13 +30002,13 @@
         <v>1</v>
       </c>
       <c r="K77">
-        <v>0</v>
+        <v>-0.1000000000000002</v>
       </c>
       <c r="L77">
-        <v>-4.1633363423443383E-17</v>
+        <v>0.20000000000000079</v>
       </c>
       <c r="M77">
-        <v>0</v>
+        <v>-0.1000000000000007</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -30061,238 +30029,729 @@
         <v>-0.5</v>
       </c>
       <c r="T77">
+        <v>-1.866666666666668</v>
+      </c>
+      <c r="U77">
+        <v>-2.775557561562891E-17</v>
+      </c>
+      <c r="V77">
+        <v>2.775557561562891E-17</v>
+      </c>
+      <c r="W77">
+        <v>1.866666666666668</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="E79">
+        <v>3</v>
+      </c>
+      <c r="F79">
+        <v>4</v>
+      </c>
+      <c r="G79">
+        <v>5</v>
+      </c>
+      <c r="H79">
+        <v>6</v>
+      </c>
+      <c r="I79">
+        <v>7</v>
+      </c>
+      <c r="J79">
+        <v>8</v>
+      </c>
+      <c r="K79">
+        <v>9</v>
+      </c>
+      <c r="L79">
+        <v>10</v>
+      </c>
+      <c r="M79">
+        <v>11</v>
+      </c>
+      <c r="N79">
+        <v>12</v>
+      </c>
+      <c r="O79">
+        <v>13</v>
+      </c>
+      <c r="P79">
+        <v>14</v>
+      </c>
+      <c r="Q79">
+        <v>15</v>
+      </c>
+      <c r="R79">
+        <v>16</v>
+      </c>
+      <c r="S79">
+        <v>17</v>
+      </c>
+      <c r="T79">
+        <v>18</v>
+      </c>
+      <c r="U79">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80">
+        <v>1.9999999999999989</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>1.332267629550188E-15</v>
+      </c>
+      <c r="M80">
+        <v>-8.8817841970012523E-16</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>-2.9999999999999991</v>
+      </c>
+      <c r="U80">
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="V80">
+        <v>-0.50000000000000011</v>
+      </c>
+      <c r="W80">
+        <v>2</v>
+      </c>
+      <c r="Y80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>9</v>
+      </c>
+      <c r="B81">
+        <v>-10.66666666666665</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>-2.000000000000004</v>
+      </c>
+      <c r="M81">
+        <v>1.0000000000000051</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>10.66666666666665</v>
+      </c>
+      <c r="U81">
+        <v>0.99999999999999711</v>
+      </c>
+      <c r="V81">
+        <v>-0.99999999999999711</v>
+      </c>
+      <c r="W81">
+        <v>-12.66666666666665</v>
+      </c>
+      <c r="X81">
+        <v>-12.666666666666581</v>
+      </c>
+      <c r="Y81">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>10</v>
+      </c>
+      <c r="B82">
+        <v>-0.99999999999999822</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>4.4408920985006262E-16</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>-1.7763568394002501E-15</v>
+      </c>
+      <c r="U82">
+        <v>0.49999999999999972</v>
+      </c>
+      <c r="V82">
+        <v>-0.49999999999999972</v>
+      </c>
+      <c r="W82">
+        <v>-0.99999999999999734</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>3</v>
+      </c>
+      <c r="B83">
+        <v>-0.2</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>1.387778780781446E-17</v>
+      </c>
+      <c r="M83">
+        <v>-3.4694469519536227E-18</v>
+      </c>
+      <c r="N83">
+        <v>-0.5</v>
+      </c>
+      <c r="O83">
+        <v>0.5</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0.5</v>
+      </c>
+      <c r="R83">
+        <v>-0.5</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83">
         <v>-0.8</v>
       </c>
-      <c r="U77">
-        <v>-3.3507553457025772E-17</v>
-      </c>
-      <c r="V77">
-        <v>3.3507553457025772E-17</v>
-      </c>
-      <c r="W77">
-        <v>0.80000000000000016</v>
-      </c>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
-      <c r="M80" s="3"/>
-      <c r="N80" s="3"/>
-      <c r="O80" s="3"/>
-      <c r="P80" s="3"/>
-      <c r="Q80" s="3"/>
-      <c r="R80" s="3"/>
-      <c r="S80" s="3"/>
-      <c r="T80" s="3"/>
-      <c r="U80" s="3"/>
-      <c r="V80" s="3"/>
-      <c r="W80" s="3"/>
-    </row>
-    <row r="81" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="2"/>
-      <c r="L81" s="2"/>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
-      <c r="P81" s="2"/>
-      <c r="Q81" s="2"/>
-      <c r="R81" s="2"/>
-      <c r="S81" s="2"/>
-      <c r="T81" s="2"/>
-      <c r="U81" s="2"/>
-      <c r="V81" s="2"/>
-      <c r="W81" s="2"/>
-    </row>
-    <row r="82" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
-      <c r="P82" s="2"/>
-      <c r="Q82" s="2"/>
-      <c r="R82" s="2"/>
-      <c r="S82" s="2"/>
-      <c r="T82" s="2"/>
-      <c r="U82" s="2"/>
-      <c r="V82" s="2"/>
-      <c r="W82" s="2"/>
-    </row>
-    <row r="83" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="2"/>
-      <c r="L83" s="2"/>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
-      <c r="P83" s="2"/>
-      <c r="Q83" s="2"/>
-      <c r="R83" s="2"/>
-      <c r="S83" s="2"/>
-      <c r="T83" s="2"/>
-      <c r="U83" s="2"/>
-      <c r="V83" s="2"/>
-      <c r="W83" s="2"/>
-    </row>
-    <row r="84" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
-      <c r="P84" s="2"/>
-      <c r="Q84" s="2"/>
-      <c r="R84" s="2"/>
-      <c r="S84" s="2"/>
-      <c r="T84" s="2"/>
-      <c r="U84" s="2"/>
-      <c r="V84" s="2"/>
-      <c r="W84" s="2"/>
-    </row>
-    <row r="85" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
-      <c r="J85" s="3"/>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
-      <c r="P85" s="2"/>
-      <c r="Q85" s="2"/>
-      <c r="R85" s="2"/>
-      <c r="S85" s="2"/>
-      <c r="T85" s="4"/>
-      <c r="U85" s="2"/>
-      <c r="V85" s="4"/>
-      <c r="W85" s="2"/>
-    </row>
-    <row r="86" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="2"/>
-      <c r="L86" s="2"/>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
-      <c r="P86" s="2"/>
-      <c r="Q86" s="2"/>
-      <c r="R86" s="2"/>
-      <c r="S86" s="2"/>
-      <c r="T86" s="2"/>
-      <c r="U86" s="2"/>
-      <c r="V86" s="2"/>
-      <c r="W86" s="2"/>
-    </row>
-    <row r="87" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
-      <c r="J87" s="3"/>
-      <c r="K87" s="2"/>
-      <c r="L87" s="2"/>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
-      <c r="P87" s="2"/>
-      <c r="Q87" s="2"/>
-      <c r="R87" s="2"/>
-      <c r="S87" s="2"/>
-      <c r="T87" s="2"/>
-      <c r="U87" s="2"/>
-      <c r="V87" s="2"/>
-      <c r="W87" s="16"/>
-    </row>
-    <row r="88" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="4"/>
-      <c r="J88" s="3"/>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
-      <c r="M88" s="4"/>
-      <c r="N88" s="4"/>
-      <c r="O88" s="2"/>
-      <c r="P88" s="2"/>
-      <c r="Q88" s="4"/>
-      <c r="R88" s="2"/>
-      <c r="S88" s="2"/>
-      <c r="T88" s="2"/>
-      <c r="U88" s="2"/>
-      <c r="V88" s="4"/>
-      <c r="W88" s="2"/>
-    </row>
-    <row r="90" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="X90" s="6"/>
-    </row>
-    <row r="91" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="U83">
+        <v>-8.6736173798840308E-18</v>
+      </c>
+      <c r="V83">
+        <v>8.6736173798840308E-18</v>
+      </c>
+      <c r="W83">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>4</v>
+      </c>
+      <c r="B84">
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>3.05311331771918E-16</v>
+      </c>
+      <c r="M84">
+        <v>-1.9428902930940239E-16</v>
+      </c>
+      <c r="N84">
+        <v>0.5</v>
+      </c>
+      <c r="O84">
+        <v>-1</v>
+      </c>
+      <c r="P84">
+        <v>0.5</v>
+      </c>
+      <c r="Q84">
+        <v>-0.5</v>
+      </c>
+      <c r="R84">
+        <v>1</v>
+      </c>
+      <c r="S84">
+        <v>-0.5</v>
+      </c>
+      <c r="T84">
+        <v>-1.4</v>
+      </c>
+      <c r="U84">
+        <v>0.1</v>
+      </c>
+      <c r="V84">
+        <v>-0.1</v>
+      </c>
+      <c r="W84">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>5</v>
+      </c>
+      <c r="B85">
+        <v>-0.19999999999999971</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>-2.775557561562891E-17</v>
+      </c>
+      <c r="M85">
+        <v>9.7144514654701197E-17</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>0.5</v>
+      </c>
+      <c r="P85">
+        <v>-0.5</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>-0.5</v>
+      </c>
+      <c r="S85">
+        <v>0.5</v>
+      </c>
+      <c r="T85">
+        <v>-0.80000000000000027</v>
+      </c>
+      <c r="U85">
+        <v>9.9999999999999922E-2</v>
+      </c>
+      <c r="V85">
+        <v>-9.9999999999999922E-2</v>
+      </c>
+      <c r="W85">
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>6</v>
+      </c>
+      <c r="B86">
+        <v>-0.2</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>1.387778780781446E-17</v>
+      </c>
+      <c r="M86">
+        <v>-3.4694469519536227E-18</v>
+      </c>
+      <c r="N86">
+        <v>0.5</v>
+      </c>
+      <c r="O86">
+        <v>-0.5</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>-0.5</v>
+      </c>
+      <c r="R86">
+        <v>0.5</v>
+      </c>
+      <c r="S86">
+        <v>0</v>
+      </c>
+      <c r="T86">
+        <v>-0.8</v>
+      </c>
+      <c r="U86">
+        <v>-8.6736173798840308E-18</v>
+      </c>
+      <c r="V86">
+        <v>8.6736173798840308E-18</v>
+      </c>
+      <c r="W86">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>7</v>
+      </c>
+      <c r="B87">
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>3.05311331771918E-16</v>
+      </c>
+      <c r="M87">
+        <v>-1.9428902930940239E-16</v>
+      </c>
+      <c r="N87">
+        <v>-0.5</v>
+      </c>
+      <c r="O87">
+        <v>1</v>
+      </c>
+      <c r="P87">
+        <v>-0.5</v>
+      </c>
+      <c r="Q87">
+        <v>0.5</v>
+      </c>
+      <c r="R87">
+        <v>-1</v>
+      </c>
+      <c r="S87">
+        <v>0.5</v>
+      </c>
+      <c r="T87">
+        <v>-1.4</v>
+      </c>
+      <c r="U87">
+        <v>0.1</v>
+      </c>
+      <c r="V87">
+        <v>-0.1</v>
+      </c>
+      <c r="W87">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>8</v>
+      </c>
+      <c r="B88">
+        <v>-0.19999999999999971</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>-2.775557561562891E-17</v>
+      </c>
+      <c r="M88">
+        <v>9.7144514654701197E-17</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>-0.5</v>
+      </c>
+      <c r="P88">
+        <v>0.5</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>0.5</v>
+      </c>
+      <c r="S88">
+        <v>-0.5</v>
+      </c>
+      <c r="T88">
+        <v>-0.80000000000000027</v>
+      </c>
+      <c r="U88">
+        <v>9.9999999999999922E-2</v>
+      </c>
+      <c r="V88">
+        <v>-9.9999999999999922E-2</v>
+      </c>
+      <c r="W88">
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -30316,7 +30775,7 @@
       <c r="V91" s="2"/>
       <c r="W91" s="2"/>
     </row>
-    <row r="92" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -30340,7 +30799,7 @@
       <c r="V92" s="4"/>
       <c r="W92" s="2"/>
     </row>
-    <row r="93" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -30364,7 +30823,7 @@
       <c r="V93" s="4"/>
       <c r="W93" s="2"/>
     </row>
-    <row r="94" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -30388,7 +30847,7 @@
       <c r="V94" s="4"/>
       <c r="W94" s="4"/>
     </row>
-    <row r="95" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -30412,7 +30871,7 @@
       <c r="V95" s="4"/>
       <c r="W95" s="2"/>
     </row>
-    <row r="96" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>

--- a/Examples/Problems solutions.xlsx
+++ b/Examples/Problems solutions.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!MyFiles\PhD\FrictionalContactFEM\Examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1детская\Python\ContactFEM\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27390F23-1457-451F-A942-39612CF1EE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="2const" sheetId="1" r:id="rId1"/>
@@ -18,9 +17,9 @@
     <sheet name="2const 1var" sheetId="2" r:id="rId3"/>
     <sheet name="2const 3var" sheetId="4" r:id="rId4"/>
     <sheet name="2var opposite" sheetId="6" r:id="rId5"/>
-    <sheet name="Лист1" sheetId="5" r:id="rId6"/>
+    <sheet name="для статьи 6" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="52">
   <si>
     <t>xn1</t>
   </si>
@@ -175,12 +174,33 @@
   <si>
     <t>как получить что p должно быть равно нулю здесь</t>
   </si>
+  <si>
+    <t>pRv</t>
+  </si>
+  <si>
+    <t>basis</t>
+  </si>
+  <si>
+    <t>min ratio</t>
+  </si>
+  <si>
+    <t>Решение балки</t>
+  </si>
+  <si>
+    <t>Приблжение решений</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>error, %</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,8 +224,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,24 +261,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -266,20 +289,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -287,16 +301,19 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1373,16 +1390,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X55"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="B1" sqref="B1:V1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1447,7 +1464,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>0</v>
       </c>
@@ -1503,7 +1520,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1577,7 +1594,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1651,7 +1668,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1719,7 +1736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1787,7 +1804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1855,7 +1872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1923,7 +1940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1991,7 +2008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2059,7 +2076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -2127,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>0</v>
       </c>
@@ -2183,7 +2200,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -2254,7 +2271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2325,7 +2342,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2393,7 +2410,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -2461,7 +2478,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
@@ -2526,7 +2543,7 @@
         <v>0.17812500000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
@@ -2594,7 +2611,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6</v>
       </c>
@@ -2662,7 +2679,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>7</v>
       </c>
@@ -2730,7 +2747,7 @@
         <v>0.35625000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18</v>
       </c>
@@ -2798,7 +2815,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>0</v>
       </c>
@@ -2854,7 +2871,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -2922,7 +2939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2993,7 +3010,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>17</v>
       </c>
@@ -3058,7 +3075,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -3126,7 +3143,7 @@
         <v>2.3333333330000001</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -3194,7 +3211,7 @@
         <v>6.3333333329999997</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5</v>
       </c>
@@ -3262,7 +3279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6</v>
       </c>
@@ -3330,7 +3347,7 @@
         <v>2.3333333330000001</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7</v>
       </c>
@@ -3398,7 +3415,7 @@
         <v>0.515151515</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>18</v>
       </c>
@@ -3466,7 +3483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>0</v>
       </c>
@@ -3522,7 +3539,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0</v>
       </c>
@@ -3590,7 +3607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -3661,7 +3678,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>17</v>
       </c>
@@ -3726,7 +3743,7 @@
         <v>0.32727272699999999</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -3791,7 +3808,7 @@
         <v>6.8181818000000005E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4</v>
       </c>
@@ -3859,7 +3876,7 @@
         <v>0.514285714</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5</v>
       </c>
@@ -3927,7 +3944,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>6</v>
       </c>
@@ -3995,7 +4012,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>11</v>
       </c>
@@ -4060,7 +4077,7 @@
         <v>0.515151515</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>18</v>
       </c>
@@ -4128,7 +4145,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>0</v>
       </c>
@@ -4184,7 +4201,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0</v>
       </c>
@@ -4255,7 +4272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -4323,7 +4340,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>17</v>
       </c>
@@ -4388,7 +4405,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
@@ -4456,7 +4473,7 @@
         <v>1601280000000000</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4</v>
       </c>
@@ -4521,7 +4538,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>5</v>
       </c>
@@ -4589,7 +4606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>6</v>
       </c>
@@ -4657,7 +4674,7 @@
         <v>0.66666666699999999</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>11</v>
       </c>
@@ -4725,7 +4742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>16</v>
       </c>
@@ -4797,19 +4814,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76BB4576-C35B-4877-9CDD-1B4A956E406B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="22" width="8.33203125" customWidth="1"/>
+    <col min="2" max="22" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -4874,7 +4891,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>0</v>
       </c>
@@ -4933,7 +4950,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -5007,7 +5024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5078,7 +5095,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -5146,7 +5163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -5217,7 +5234,7 @@
         <v>53.333333330000002</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -5285,7 +5302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -5353,7 +5370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -5424,7 +5441,7 @@
         <v>53.333333330000002</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -5492,7 +5509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -5560,7 +5577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>0</v>
       </c>
@@ -5619,7 +5636,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>19</v>
       </c>
@@ -5690,7 +5707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -5761,7 +5778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -5829,7 +5846,7 @@
         <v>5.3333333329999997</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -5900,7 +5917,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
@@ -5968,7 +5985,7 @@
         <v>2.4666666670000001</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
@@ -6036,7 +6053,7 @@
         <v>1.8666666670000001</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6</v>
       </c>
@@ -6104,7 +6121,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>7</v>
       </c>
@@ -6172,7 +6189,7 @@
         <v>2.4666666670000001</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>8</v>
       </c>
@@ -6240,7 +6257,7 @@
         <v>1.8666666670000001</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>0</v>
       </c>
@@ -6299,7 +6316,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>9</v>
       </c>
@@ -6367,7 +6384,7 @@
         <v>-10.66666667</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -6435,7 +6452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -6503,7 +6520,7 @@
         <v>1.7763599999999999E-15</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -6574,7 +6591,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -6642,7 +6659,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5</v>
       </c>
@@ -6710,7 +6727,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6</v>
       </c>
@@ -6778,7 +6795,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7</v>
       </c>
@@ -6846,7 +6863,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>8</v>
       </c>
@@ -6920,16 +6937,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB203101-243D-46B5-B3D4-C0D055C60005}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X77"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:V1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -6994,7 +7011,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>0</v>
       </c>
@@ -7053,7 +7070,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -7127,7 +7144,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -7201,7 +7218,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -7272,7 +7289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -7343,7 +7360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -7414,7 +7431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -7485,7 +7502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -7556,7 +7573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -7627,7 +7644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -7698,7 +7715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>0</v>
       </c>
@@ -7757,7 +7774,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -7831,7 +7848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -7905,7 +7922,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -7976,7 +7993,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -8047,7 +8064,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
@@ -8115,7 +8132,7 @@
         <v>0.35625000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
@@ -8186,7 +8203,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6</v>
       </c>
@@ -8257,7 +8274,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>7</v>
       </c>
@@ -8328,7 +8345,7 @@
         <v>0.35625000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18</v>
       </c>
@@ -8399,7 +8416,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>0</v>
       </c>
@@ -8458,7 +8475,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -8529,7 +8546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -8603,7 +8620,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>17</v>
       </c>
@@ -8671,7 +8688,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -8742,7 +8759,7 @@
         <v>2.3333333330000001</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -8813,7 +8830,7 @@
         <v>6.3333333329999997</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5</v>
       </c>
@@ -8884,7 +8901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6</v>
       </c>
@@ -8955,7 +8972,7 @@
         <v>2.3333333330000001</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7</v>
       </c>
@@ -9026,7 +9043,7 @@
         <v>0.515151515</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>18</v>
       </c>
@@ -9097,7 +9114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>0</v>
       </c>
@@ -9156,7 +9173,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0</v>
       </c>
@@ -9227,7 +9244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -9301,7 +9318,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>17</v>
       </c>
@@ -9369,7 +9386,7 @@
         <v>0.32727272699999999</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -9437,7 +9454,7 @@
         <v>0.13636363600000001</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4</v>
       </c>
@@ -9508,7 +9525,7 @@
         <v>0.514285714</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5</v>
       </c>
@@ -9579,7 +9596,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>6</v>
       </c>
@@ -9650,7 +9667,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>11</v>
       </c>
@@ -9718,7 +9735,7 @@
         <v>0.515151515</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>18</v>
       </c>
@@ -9789,7 +9806,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>0</v>
       </c>
@@ -9848,7 +9865,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0</v>
       </c>
@@ -9922,7 +9939,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -9993,7 +10010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>17</v>
       </c>
@@ -10061,7 +10078,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
@@ -10132,7 +10149,7 @@
         <v>1601280000000000</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4</v>
       </c>
@@ -10200,7 +10217,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>5</v>
       </c>
@@ -10271,7 +10288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>6</v>
       </c>
@@ -10342,7 +10359,7 @@
         <v>0.66666666699999999</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>11</v>
       </c>
@@ -10413,7 +10430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>16</v>
       </c>
@@ -10481,7 +10498,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>0</v>
       </c>
@@ -10543,7 +10560,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0</v>
       </c>
@@ -10614,7 +10631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -10688,7 +10705,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>17</v>
       </c>
@@ -10756,7 +10773,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3</v>
       </c>
@@ -10824,7 +10841,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>4</v>
       </c>
@@ -10895,7 +10912,7 @@
         <v>0.33333333300000001</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>5</v>
       </c>
@@ -10963,7 +10980,7 @@
         <v>2.7755599999999997E-17</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>6</v>
       </c>
@@ -11034,7 +11051,7 @@
         <v>4.1633400000000002E-16</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>11</v>
       </c>
@@ -11102,7 +11119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>16</v>
       </c>
@@ -11170,7 +11187,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>0</v>
       </c>
@@ -11229,7 +11246,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>0</v>
       </c>
@@ -11300,7 +11317,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1</v>
       </c>
@@ -11371,7 +11388,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>17</v>
       </c>
@@ -11439,7 +11456,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>3</v>
       </c>
@@ -11507,7 +11524,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>4</v>
       </c>
@@ -11575,7 +11592,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>5</v>
       </c>
@@ -11643,7 +11660,7 @@
         <v>2.7755599999999997E-17</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>19</v>
       </c>
@@ -11711,7 +11728,7 @@
         <v>4.1633400000000002E-16</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>11</v>
       </c>
@@ -11779,7 +11796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>16</v>
       </c>
@@ -11853,7 +11870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F243B45-CC4A-4017-8A61-6ABDC1612E53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y198"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -11861,13 +11878,13 @@
       <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="21" max="21" width="9.109375" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" customWidth="1"/>
     <col min="22" max="22" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>30</v>
       </c>
@@ -11938,7 +11955,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>0</v>
       </c>
@@ -12000,7 +12017,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -12058,7 +12075,7 @@
       <c r="S3" s="2">
         <v>0</v>
       </c>
-      <c r="T3" s="14">
+      <c r="T3" s="8">
         <v>-1</v>
       </c>
       <c r="U3" s="2">
@@ -12077,7 +12094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -12135,7 +12152,7 @@
       <c r="S4" s="2">
         <v>0</v>
       </c>
-      <c r="T4" s="14">
+      <c r="T4" s="8">
         <v>-1</v>
       </c>
       <c r="U4" s="2">
@@ -12154,7 +12171,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -12212,7 +12229,7 @@
       <c r="S5" s="2">
         <v>0</v>
       </c>
-      <c r="T5" s="14">
+      <c r="T5" s="8">
         <v>-1</v>
       </c>
       <c r="U5" s="2">
@@ -12228,7 +12245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -12286,7 +12303,7 @@
       <c r="S6" s="2">
         <v>0</v>
       </c>
-      <c r="T6" s="14">
+      <c r="T6" s="8">
         <v>-1</v>
       </c>
       <c r="U6" s="2">
@@ -12302,7 +12319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -12360,7 +12377,7 @@
       <c r="S7" s="2">
         <v>-0.5</v>
       </c>
-      <c r="T7" s="14">
+      <c r="T7" s="8">
         <v>-1</v>
       </c>
       <c r="U7" s="2">
@@ -12376,7 +12393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -12434,7 +12451,7 @@
       <c r="S8" s="2">
         <v>0.5</v>
       </c>
-      <c r="T8" s="14">
+      <c r="T8" s="8">
         <v>-1</v>
       </c>
       <c r="U8" s="2">
@@ -12450,7 +12467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -12508,7 +12525,7 @@
       <c r="S9" s="2">
         <v>0</v>
       </c>
-      <c r="T9" s="14">
+      <c r="T9" s="8">
         <v>-1</v>
       </c>
       <c r="U9" s="2">
@@ -12524,7 +12541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -12582,7 +12599,7 @@
       <c r="S10" s="2">
         <v>0.5</v>
       </c>
-      <c r="T10" s="14">
+      <c r="T10" s="8">
         <v>-1</v>
       </c>
       <c r="U10" s="2">
@@ -12598,81 +12615,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="14">
-        <v>0</v>
-      </c>
-      <c r="C11" s="14">
-        <v>0</v>
-      </c>
-      <c r="D11" s="14">
-        <v>0</v>
-      </c>
-      <c r="E11" s="14">
-        <v>0</v>
-      </c>
-      <c r="F11" s="14">
-        <v>0</v>
-      </c>
-      <c r="G11" s="14">
-        <v>0</v>
-      </c>
-      <c r="H11" s="14">
-        <v>0</v>
-      </c>
-      <c r="I11" s="14">
-        <v>0</v>
-      </c>
-      <c r="J11" s="14">
-        <v>1</v>
-      </c>
-      <c r="K11" s="14">
+      <c r="B11" s="8">
+        <v>0</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8">
+        <v>1</v>
+      </c>
+      <c r="K11" s="8">
         <v>-1.8749999999999999E-2</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="8">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11" s="8">
         <v>-1.8749999999999999E-2</v>
       </c>
-      <c r="N11" s="14">
-        <v>0</v>
-      </c>
-      <c r="O11" s="14">
-        <v>-0.5</v>
-      </c>
-      <c r="P11" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="Q11" s="14">
-        <v>0</v>
-      </c>
-      <c r="R11" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="S11" s="14">
-        <v>-0.5</v>
-      </c>
-      <c r="T11" s="14">
+      <c r="N11" s="8">
+        <v>0</v>
+      </c>
+      <c r="O11" s="8">
+        <v>-0.5</v>
+      </c>
+      <c r="P11" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>0</v>
+      </c>
+      <c r="R11" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="S11" s="8">
+        <v>-0.5</v>
+      </c>
+      <c r="T11" s="8">
         <v>-1</v>
       </c>
-      <c r="U11" s="14">
+      <c r="U11" s="8">
         <v>-8.1250000000000003E-2</v>
       </c>
-      <c r="V11" s="14">
+      <c r="V11" s="8">
         <v>-0.11874999999999999</v>
       </c>
-      <c r="W11" s="14">
+      <c r="W11" s="8">
         <v>-0.21875</v>
       </c>
       <c r="X11">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>0</v>
       </c>
@@ -12734,7 +12751,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -12811,7 +12828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -12888,7 +12905,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -12962,7 +12979,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -13036,7 +13053,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
@@ -13107,7 +13124,7 @@
         <v>0.35625000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
@@ -13181,7 +13198,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6</v>
       </c>
@@ -13255,7 +13272,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>7</v>
       </c>
@@ -13329,7 +13346,7 @@
         <v>0.35625000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18</v>
       </c>
@@ -13396,14 +13413,14 @@
       <c r="V22" s="2">
         <v>0.11874999999999999</v>
       </c>
-      <c r="W22" s="16">
+      <c r="W22" s="10">
         <v>0.21875</v>
       </c>
       <c r="X22">
         <v>0.4375</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>0</v>
       </c>
@@ -13465,7 +13482,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -13539,7 +13556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -13616,7 +13633,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>17</v>
       </c>
@@ -13687,7 +13704,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -13761,7 +13778,7 @@
         <v>2.3333333330000001</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -13835,7 +13852,7 @@
         <v>6.3333333329999997</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5</v>
       </c>
@@ -13909,7 +13926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6</v>
       </c>
@@ -13983,7 +14000,7 @@
         <v>2.3333333330000001</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7</v>
       </c>
@@ -14057,7 +14074,7 @@
         <v>0.515151515</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>18</v>
       </c>
@@ -14124,14 +14141,14 @@
       <c r="V33" s="2">
         <v>0.59375</v>
       </c>
-      <c r="W33" s="16">
+      <c r="W33" s="10">
         <v>9.375E-2</v>
       </c>
       <c r="X33">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>0</v>
       </c>
@@ -14193,7 +14210,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0</v>
       </c>
@@ -14267,7 +14284,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -14344,7 +14361,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>17</v>
       </c>
@@ -14415,7 +14432,7 @@
         <v>0.32727272699999999</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -14486,7 +14503,7 @@
         <v>0.13636363600000001</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4</v>
       </c>
@@ -14560,7 +14577,7 @@
         <v>0.514285714</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5</v>
       </c>
@@ -14634,7 +14651,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>6</v>
       </c>
@@ -14708,7 +14725,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>11</v>
       </c>
@@ -14779,7 +14796,7 @@
         <v>0.515151515</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>18</v>
       </c>
@@ -14846,19 +14863,19 @@
       <c r="V44" s="3">
         <v>4.5454544999999999E-2</v>
       </c>
-      <c r="W44" s="15">
+      <c r="W44" s="9">
         <v>4.5454544999999999E-2</v>
       </c>
       <c r="X44">
         <v>0.2</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="X45" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>0</v>
       </c>
@@ -14923,7 +14940,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0</v>
       </c>
@@ -15000,7 +15017,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -15074,7 +15091,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>17</v>
       </c>
@@ -15148,7 +15165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
@@ -15222,7 +15239,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4</v>
       </c>
@@ -15293,7 +15310,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>5</v>
       </c>
@@ -15364,7 +15381,7 @@
         <v>2.7755599999999997E-17</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>6</v>
       </c>
@@ -15435,7 +15452,7 @@
         <v>8.3266699999999998E-17</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>11</v>
       </c>
@@ -15509,7 +15526,7 @@
         <v>0.23076923099999999</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>16</v>
       </c>
@@ -15583,7 +15600,7 @@
         <v>0.33333333300000001</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>0</v>
       </c>
@@ -15646,7 +15663,7 @@
       </c>
       <c r="X57" s="6"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0</v>
       </c>
@@ -15723,7 +15740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -15797,7 +15814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>17</v>
       </c>
@@ -15871,7 +15888,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3</v>
       </c>
@@ -15945,7 +15962,7 @@
         <v>0.18421052600000001</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>4</v>
       </c>
@@ -16016,7 +16033,7 @@
         <v>0.33846153800000001</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>5</v>
       </c>
@@ -16087,7 +16104,7 @@
         <v>3.41607E-17</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>6</v>
       </c>
@@ -16158,7 +16175,7 @@
         <v>4.6153845999999998E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>19</v>
       </c>
@@ -16225,11 +16242,11 @@
       <c r="V65" s="2">
         <v>1.461538462</v>
       </c>
-      <c r="W65" s="16">
+      <c r="W65" s="10">
         <v>0.23076923099999999</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>16</v>
       </c>
@@ -16303,7 +16320,7 @@
         <v>5.7142856999999998E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>0</v>
       </c>
@@ -16365,7 +16382,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>0</v>
       </c>
@@ -16442,7 +16459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1</v>
       </c>
@@ -16516,7 +16533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>17</v>
       </c>
@@ -16590,7 +16607,7 @@
         <v>0.50769230799999998</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>3</v>
       </c>
@@ -16664,7 +16681,7 @@
         <v>0.86666666699999995</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>4</v>
       </c>
@@ -16735,7 +16752,7 @@
         <v>0.377142857</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>5</v>
       </c>
@@ -16806,7 +16823,7 @@
         <v>2.2857143E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>6</v>
       </c>
@@ -16880,7 +16897,7 @@
         <v>0.86666666699999995</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>19</v>
       </c>
@@ -16947,11 +16964,11 @@
       <c r="V76" s="2">
         <v>-8.5714286000000001E-2</v>
       </c>
-      <c r="W76" s="16">
+      <c r="W76" s="10">
         <v>0.37142857099999999</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2</v>
       </c>
@@ -17022,7 +17039,7 @@
         <v>5.7142856999999998E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>0</v>
       </c>
@@ -17084,7 +17101,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>0</v>
       </c>
@@ -17161,7 +17178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1</v>
       </c>
@@ -17235,7 +17252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>7</v>
       </c>
@@ -17306,7 +17323,7 @@
         <v>0.50769230799999998</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>3</v>
       </c>
@@ -17380,7 +17397,7 @@
         <v>0.133333333</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>4</v>
       </c>
@@ -17451,7 +17468,7 @@
         <v>0.50769230799999998</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>5</v>
       </c>
@@ -17522,7 +17539,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>6</v>
       </c>
@@ -17596,7 +17613,7 @@
         <v>0.133333333</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>19</v>
       </c>
@@ -17663,11 +17680,11 @@
       <c r="V87" s="2">
         <v>1.461538462</v>
       </c>
-      <c r="W87" s="16">
+      <c r="W87" s="10">
         <v>2.692307692</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2</v>
       </c>
@@ -17738,7 +17755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>0</v>
       </c>
@@ -17803,7 +17820,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>8</v>
       </c>
@@ -17877,7 +17894,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1</v>
       </c>
@@ -17951,7 +17968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>7</v>
       </c>
@@ -18022,7 +18039,7 @@
         <v>0.73333333300000003</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>3</v>
       </c>
@@ -18093,7 +18110,7 @@
         <v>1.11022E-16</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>4</v>
       </c>
@@ -18164,7 +18181,7 @@
         <v>0.73333333300000003</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>5</v>
       </c>
@@ -18235,7 +18252,7 @@
         <v>0.53333333299999997</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>6</v>
       </c>
@@ -18306,7 +18323,7 @@
         <v>5.2388600000000005E-16</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>19</v>
       </c>
@@ -18373,11 +18390,11 @@
       <c r="V98" s="3">
         <v>-1</v>
       </c>
-      <c r="W98" s="15">
+      <c r="W98" s="9">
         <v>4.3333333329999997</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2</v>
       </c>
@@ -18448,12 +18465,12 @@
         <v>1.6666666670000001</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="X100" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>0</v>
       </c>
@@ -18518,7 +18535,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>8</v>
       </c>
@@ -18592,7 +18609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1</v>
       </c>
@@ -18669,7 +18686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>7</v>
       </c>
@@ -18743,7 +18760,7 @@
         <v>1351080000000000</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>3</v>
       </c>
@@ -18814,7 +18831,7 @@
         <v>3.5850999999999998E-17</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>4</v>
       </c>
@@ -18888,7 +18905,7 @@
         <v>900720000000000</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>5</v>
       </c>
@@ -18959,7 +18976,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>6</v>
       </c>
@@ -19033,7 +19050,7 @@
         <v>0.366666667</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>9</v>
       </c>
@@ -19104,7 +19121,7 @@
         <v>-4.3333333329999997</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2</v>
       </c>
@@ -19175,7 +19192,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B112">
         <v>0</v>
       </c>
@@ -19240,7 +19257,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>8</v>
       </c>
@@ -19314,7 +19331,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1</v>
       </c>
@@ -19391,7 +19408,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>7</v>
       </c>
@@ -19465,7 +19482,7 @@
         <v>7.3333333329999997</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>3</v>
       </c>
@@ -19536,7 +19553,7 @@
         <v>1.11022E-16</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>4</v>
       </c>
@@ -19610,7 +19627,7 @@
         <v>7.3333333329999997</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>5</v>
       </c>
@@ -19681,7 +19698,7 @@
         <v>0.53333333299999997</v>
       </c>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>6</v>
       </c>
@@ -19755,7 +19772,7 @@
         <v>18.875</v>
       </c>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>9</v>
       </c>
@@ -19822,14 +19839,14 @@
       <c r="V120" s="3">
         <v>1</v>
       </c>
-      <c r="W120" s="15">
+      <c r="W120" s="9">
         <v>0</v>
       </c>
       <c r="X120">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2</v>
       </c>
@@ -19900,7 +19917,7 @@
         <v>1.6666666670000001</v>
       </c>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>0</v>
       </c>
@@ -19962,7 +19979,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>8</v>
       </c>
@@ -20036,7 +20053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1</v>
       </c>
@@ -20113,7 +20130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>7</v>
       </c>
@@ -20187,7 +20204,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>3</v>
       </c>
@@ -20258,7 +20275,7 @@
         <v>1.11022E-16</v>
       </c>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>4</v>
       </c>
@@ -20332,7 +20349,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>5</v>
       </c>
@@ -20403,7 +20420,7 @@
         <v>0.53333333299999997</v>
       </c>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>6</v>
       </c>
@@ -20474,7 +20491,7 @@
         <v>5.2388600000000005E-16</v>
       </c>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>20</v>
       </c>
@@ -20541,11 +20558,11 @@
       <c r="V131" s="2">
         <v>1</v>
       </c>
-      <c r="W131" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="W131" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2</v>
       </c>
@@ -20616,7 +20633,7 @@
         <v>1.6666666670000001</v>
       </c>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B134">
         <v>0</v>
       </c>
@@ -20678,7 +20695,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>8</v>
       </c>
@@ -20752,7 +20769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>0</v>
       </c>
@@ -20829,7 +20846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>7</v>
       </c>
@@ -20900,7 +20917,7 @@
         <v>8.8817800000000003E-16</v>
       </c>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>3</v>
       </c>
@@ -20974,7 +20991,7 @@
         <v>3.6666666669999999</v>
       </c>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>4</v>
       </c>
@@ -21048,7 +21065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>5</v>
       </c>
@@ -21119,7 +21136,7 @@
         <v>1.1666666670000001</v>
       </c>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>6</v>
       </c>
@@ -21193,7 +21210,7 @@
         <v>3.6666666669999999</v>
       </c>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>20</v>
       </c>
@@ -21260,11 +21277,11 @@
       <c r="V142" s="2">
         <v>1</v>
       </c>
-      <c r="W142" s="16">
+      <c r="W142" s="10">
         <v>5.3333333329999997</v>
       </c>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2</v>
       </c>
@@ -21335,7 +21352,7 @@
         <v>4.8333333329999997</v>
       </c>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B145">
         <v>0</v>
       </c>
@@ -21397,7 +21414,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>8</v>
       </c>
@@ -21474,7 +21491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>10</v>
       </c>
@@ -21548,7 +21565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>7</v>
       </c>
@@ -21619,7 +21636,7 @@
         <v>1.70234E-15</v>
       </c>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>3</v>
       </c>
@@ -21690,7 +21707,7 @@
         <v>4.0245600000000002E-16</v>
       </c>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>4</v>
       </c>
@@ -21764,7 +21781,7 @@
         <v>0.66666666699999999</v>
       </c>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>5</v>
       </c>
@@ -21838,7 +21855,7 @@
         <v>1.3039E+16</v>
       </c>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>6</v>
       </c>
@@ -21912,7 +21929,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>20</v>
       </c>
@@ -21979,14 +21996,14 @@
       <c r="V153" s="2">
         <v>1</v>
       </c>
-      <c r="W153" s="16">
+      <c r="W153" s="10">
         <v>7.3333333329999997</v>
       </c>
       <c r="X153" s="1">
         <v>4403520000000000</v>
       </c>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>2</v>
       </c>
@@ -22060,7 +22077,7 @@
         <v>1.37253E+16</v>
       </c>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B156">
         <v>0</v>
       </c>
@@ -22122,7 +22139,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>8</v>
       </c>
@@ -22199,7 +22216,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>10</v>
       </c>
@@ -22273,7 +22290,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>7</v>
       </c>
@@ -22344,7 +22361,7 @@
         <v>1.7301E-15</v>
       </c>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>3</v>
       </c>
@@ -22415,7 +22432,7 @@
         <v>4.0939500000000002E-16</v>
       </c>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>9</v>
       </c>
@@ -22486,7 +22503,7 @@
         <v>0.66666666699999999</v>
       </c>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>5</v>
       </c>
@@ -22560,7 +22577,7 @@
         <v>0.16888888899999999</v>
       </c>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>6</v>
       </c>
@@ -22634,7 +22651,7 @@
         <v>2.25129E-16</v>
       </c>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>20</v>
       </c>
@@ -22701,14 +22718,14 @@
       <c r="V164" s="2">
         <v>1</v>
       </c>
-      <c r="W164" s="16">
+      <c r="W164" s="10">
         <v>7.3333333329999997</v>
       </c>
       <c r="X164">
         <v>6.1111111000000003E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>2</v>
       </c>
@@ -22782,7 +22799,7 @@
         <v>0.19047618999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B167">
         <v>0</v>
       </c>
@@ -22844,7 +22861,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>8</v>
       </c>
@@ -22921,7 +22938,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>10</v>
       </c>
@@ -22995,7 +23012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>7</v>
       </c>
@@ -23066,7 +23083,7 @@
         <v>2.18035E-15</v>
       </c>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>3</v>
       </c>
@@ -23140,7 +23157,7 @@
         <v>2.7940599999999999E-15</v>
       </c>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>9</v>
       </c>
@@ -23211,7 +23228,7 @@
         <v>16.88888889</v>
       </c>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>5</v>
       </c>
@@ -23285,7 +23302,7 @@
         <v>0.56296296300000004</v>
       </c>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>13</v>
       </c>
@@ -23359,7 +23376,7 @@
         <v>1.3507700000000001E-15</v>
       </c>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>20</v>
       </c>
@@ -23426,14 +23443,14 @@
       <c r="V175" s="2">
         <v>1</v>
       </c>
-      <c r="W175" s="16">
+      <c r="W175" s="10">
         <v>7.3333333329999997</v>
       </c>
       <c r="X175">
         <v>0.18333333299999999</v>
       </c>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>2</v>
       </c>
@@ -23507,7 +23524,7 @@
         <v>0.571428571</v>
       </c>
     </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B178">
         <v>0</v>
       </c>
@@ -23569,7 +23586,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>8</v>
       </c>
@@ -23646,7 +23663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>10</v>
       </c>
@@ -23720,7 +23737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>7</v>
       </c>
@@ -23791,7 +23808,7 @@
         <v>3.0808699999999999E-15</v>
       </c>
     </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>3</v>
       </c>
@@ -23865,7 +23882,7 @@
         <v>1.20274E-16</v>
       </c>
     </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>9</v>
       </c>
@@ -23936,7 +23953,7 @@
         <v>49.333333330000002</v>
       </c>
     </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>5</v>
       </c>
@@ -24010,7 +24027,7 @@
         <v>4.5238094999999999E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>15</v>
       </c>
@@ -24081,7 +24098,7 @@
         <v>1.3507700000000001E-15</v>
       </c>
     </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>20</v>
       </c>
@@ -24155,7 +24172,7 @@
         <v>1.5277778000000001E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>2</v>
       </c>
@@ -24229,7 +24246,7 @@
         <v>4.7619047999999997E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B189">
         <v>0</v>
       </c>
@@ -24294,7 +24311,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>8</v>
       </c>
@@ -24368,7 +24385,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>10</v>
       </c>
@@ -24442,7 +24459,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>7</v>
       </c>
@@ -24513,7 +24530,7 @@
         <v>3.92279E-15</v>
       </c>
     </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>4</v>
       </c>
@@ -24584,7 +24601,7 @@
         <v>1.20274E-16</v>
       </c>
     </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>9</v>
       </c>
@@ -24655,7 +24672,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>5</v>
       </c>
@@ -24726,7 +24743,7 @@
         <v>1.266666667</v>
       </c>
     </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>15</v>
       </c>
@@ -24797,7 +24814,7 @@
         <v>2.55351E-15</v>
       </c>
     </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>20</v>
       </c>
@@ -24868,7 +24885,7 @@
         <v>7.3333333329999997</v>
       </c>
     </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>2</v>
       </c>
@@ -24947,21 +24964,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA946C9-CC82-403B-9946-DA1124127D9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y198"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="21" max="21" width="9.109375" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" customWidth="1"/>
     <col min="22" max="22" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>30</v>
       </c>
@@ -25032,7 +25049,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>0</v>
       </c>
@@ -25094,7 +25111,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -25168,7 +25185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -25245,7 +25262,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -25319,7 +25336,7 @@
         <v>2.4615384615384608</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -25390,7 +25407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -25464,7 +25481,7 @@
         <v>7.2727272727272734</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -25538,7 +25555,7 @@
         <v>12.307692307692299</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -25609,7 +25626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -25683,7 +25700,7 @@
         <v>7.2727272727272734</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -25757,7 +25774,7 @@
         <v>12.307692307692299</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>0</v>
       </c>
@@ -25819,7 +25836,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -25896,7 +25913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>19</v>
       </c>
@@ -25970,7 +25987,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -26044,7 +26061,7 @@
         <v>0.99999999999999922</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -26118,7 +26135,7 @@
         <v>37.666666666666458</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
@@ -26189,7 +26206,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
@@ -26263,7 +26280,7 @@
         <v>10.77777777777778</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6</v>
       </c>
@@ -26337,7 +26354,7 @@
         <v>37.666666666666458</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>7</v>
       </c>
@@ -26408,7 +26425,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>8</v>
       </c>
@@ -26482,7 +26499,7 @@
         <v>10.77777777777778</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>0</v>
       </c>
@@ -26550,7 +26567,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -26624,7 +26641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>19</v>
       </c>
@@ -26698,7 +26715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10</v>
       </c>
@@ -26769,7 +26786,7 @@
         <v>0.99999999999999922</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -26840,7 +26857,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -26911,7 +26928,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5</v>
       </c>
@@ -26982,7 +26999,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6</v>
       </c>
@@ -27053,7 +27070,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7</v>
       </c>
@@ -27124,7 +27141,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>8</v>
       </c>
@@ -27195,7 +27212,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>0</v>
       </c>
@@ -27260,7 +27277,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0</v>
       </c>
@@ -27324,7 +27341,7 @@
       <c r="U36" s="2">
         <v>0.25000000000000128</v>
       </c>
-      <c r="V36" s="8">
+      <c r="V36" s="7">
         <v>-0.25000000000000128</v>
       </c>
       <c r="W36" s="2">
@@ -27334,74 +27351,74 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>10</v>
       </c>
-      <c r="B37" s="8">
-        <v>0</v>
-      </c>
-      <c r="C37" s="8">
+      <c r="B37" s="7">
+        <v>0</v>
+      </c>
+      <c r="C37" s="7">
         <v>-2.666666666666667</v>
       </c>
-      <c r="D37" s="8">
-        <v>0</v>
-      </c>
-      <c r="E37" s="8">
-        <v>0</v>
-      </c>
-      <c r="F37" s="8">
-        <v>0</v>
-      </c>
-      <c r="G37" s="8">
-        <v>0</v>
-      </c>
-      <c r="H37" s="8">
-        <v>0</v>
-      </c>
-      <c r="I37" s="8">
-        <v>0</v>
-      </c>
-      <c r="J37" s="8">
-        <v>0</v>
-      </c>
-      <c r="K37" s="8">
+      <c r="D37" s="7">
+        <v>0</v>
+      </c>
+      <c r="E37" s="7">
+        <v>0</v>
+      </c>
+      <c r="F37" s="7">
+        <v>0</v>
+      </c>
+      <c r="G37" s="7">
+        <v>0</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0</v>
+      </c>
+      <c r="J37" s="7">
+        <v>0</v>
+      </c>
+      <c r="K37" s="7">
         <v>-0.50000000000000056</v>
       </c>
-      <c r="L37" s="8">
-        <v>1</v>
-      </c>
-      <c r="M37" s="8">
+      <c r="L37" s="7">
+        <v>1</v>
+      </c>
+      <c r="M37" s="7">
         <v>-0.500000000000001</v>
       </c>
-      <c r="N37" s="8">
-        <v>0</v>
-      </c>
-      <c r="O37" s="8">
-        <v>0</v>
-      </c>
-      <c r="P37" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="8">
-        <v>0</v>
-      </c>
-      <c r="R37" s="8">
-        <v>0</v>
-      </c>
-      <c r="S37" s="8">
-        <v>0</v>
-      </c>
-      <c r="T37" s="8">
+      <c r="N37" s="7">
+        <v>0</v>
+      </c>
+      <c r="O37" s="7">
+        <v>0</v>
+      </c>
+      <c r="P37" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="7">
+        <v>0</v>
+      </c>
+      <c r="R37" s="7">
+        <v>0</v>
+      </c>
+      <c r="S37" s="7">
+        <v>0</v>
+      </c>
+      <c r="T37" s="7">
         <v>2.666666666666667</v>
       </c>
-      <c r="U37" s="8">
+      <c r="U37" s="7">
         <v>-1.833333333333333</v>
       </c>
-      <c r="V37" s="8">
+      <c r="V37" s="7">
         <v>1.833333333333333</v>
       </c>
-      <c r="W37" s="8">
+      <c r="W37" s="7">
         <v>-2.666666666666667</v>
       </c>
       <c r="X37">
@@ -27411,7 +27428,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>10</v>
       </c>
@@ -27475,14 +27492,14 @@
       <c r="U38" s="2">
         <v>0.75000000000000022</v>
       </c>
-      <c r="V38" s="8">
+      <c r="V38" s="7">
         <v>-0.75000000000000022</v>
       </c>
       <c r="W38" s="2">
         <v>1.5</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -27546,14 +27563,14 @@
       <c r="U39" s="2">
         <v>5.0000000000000273E-2</v>
       </c>
-      <c r="V39" s="8">
+      <c r="V39" s="7">
         <v>-5.0000000000000273E-2</v>
       </c>
       <c r="W39" s="2">
         <v>1.100000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4</v>
       </c>
@@ -27617,14 +27634,14 @@
       <c r="U40" s="2">
         <v>0</v>
       </c>
-      <c r="V40" s="8">
+      <c r="V40" s="7">
         <v>0</v>
       </c>
       <c r="W40" s="2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5</v>
       </c>
@@ -27688,14 +27705,14 @@
       <c r="U41" s="2">
         <v>0.15</v>
       </c>
-      <c r="V41" s="8">
+      <c r="V41" s="7">
         <v>-0.15</v>
       </c>
       <c r="W41" s="2">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>6</v>
       </c>
@@ -27759,14 +27776,14 @@
       <c r="U42" s="2">
         <v>5.0000000000000273E-2</v>
       </c>
-      <c r="V42" s="8">
+      <c r="V42" s="7">
         <v>-5.0000000000000273E-2</v>
       </c>
       <c r="W42" s="2">
         <v>1.100000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>7</v>
       </c>
@@ -27830,14 +27847,14 @@
       <c r="U43" s="2">
         <v>0</v>
       </c>
-      <c r="V43" s="8">
+      <c r="V43" s="7">
         <v>0</v>
       </c>
       <c r="W43" s="2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>8</v>
       </c>
@@ -27901,14 +27918,14 @@
       <c r="U44" s="2">
         <v>0.15</v>
       </c>
-      <c r="V44" s="8">
+      <c r="V44" s="7">
         <v>-0.15</v>
       </c>
       <c r="W44" s="2">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>0</v>
       </c>
@@ -27970,7 +27987,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0</v>
       </c>
@@ -28044,7 +28061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>10</v>
       </c>
@@ -28121,7 +28138,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>10</v>
       </c>
@@ -28192,7 +28209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
@@ -28263,7 +28280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4</v>
       </c>
@@ -28334,7 +28351,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>5</v>
       </c>
@@ -28405,7 +28422,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>6</v>
       </c>
@@ -28476,7 +28493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>7</v>
       </c>
@@ -28547,7 +28564,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>8</v>
       </c>
@@ -28618,7 +28635,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>0</v>
       </c>
@@ -28680,7 +28697,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0</v>
       </c>
@@ -28757,7 +28774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>20</v>
       </c>
@@ -28831,7 +28848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>10</v>
       </c>
@@ -28902,7 +28919,7 @@
         <v>0.40909090909090889</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3</v>
       </c>
@@ -28976,7 +28993,7 @@
         <v>37.666666666666707</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>4</v>
       </c>
@@ -29047,7 +29064,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>5</v>
       </c>
@@ -29118,7 +29135,7 @@
         <v>0.88181818181818183</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>6</v>
       </c>
@@ -29192,7 +29209,7 @@
         <v>37.666666666666707</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>7</v>
       </c>
@@ -29263,7 +29280,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>8</v>
       </c>
@@ -29334,7 +29351,7 @@
         <v>0.88181818181818183</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>0</v>
       </c>
@@ -29396,7 +29413,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1</v>
       </c>
@@ -29470,7 +29487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>20</v>
       </c>
@@ -29544,7 +29561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>10</v>
       </c>
@@ -29615,7 +29632,7 @@
         <v>5.3333333333333401</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>3</v>
       </c>
@@ -29686,7 +29703,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>4</v>
       </c>
@@ -29757,7 +29774,7 @@
         <v>2.466666666666669</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>5</v>
       </c>
@@ -29828,7 +29845,7 @@
         <v>1.866666666666668</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>6</v>
       </c>
@@ -29899,7 +29916,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>7</v>
       </c>
@@ -29970,7 +29987,7 @@
         <v>2.466666666666669</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>8</v>
       </c>
@@ -30041,7 +30058,7 @@
         <v>1.866666666666668</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>0</v>
       </c>
@@ -30103,7 +30120,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1</v>
       </c>
@@ -30177,7 +30194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>9</v>
       </c>
@@ -30254,7 +30271,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>10</v>
       </c>
@@ -30325,7 +30342,7 @@
         <v>-0.99999999999999734</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>3</v>
       </c>
@@ -30396,7 +30413,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>4</v>
       </c>
@@ -30467,7 +30484,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>5</v>
       </c>
@@ -30538,7 +30555,7 @@
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>6</v>
       </c>
@@ -30609,7 +30626,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>7</v>
       </c>
@@ -30680,7 +30697,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>8</v>
       </c>
@@ -30751,7 +30768,7 @@
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -30775,7 +30792,7 @@
       <c r="V91" s="2"/>
       <c r="W91" s="2"/>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -30799,7 +30816,7 @@
       <c r="V92" s="4"/>
       <c r="W92" s="2"/>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -30823,7 +30840,7 @@
       <c r="V93" s="4"/>
       <c r="W93" s="2"/>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -30847,7 +30864,7 @@
       <c r="V94" s="4"/>
       <c r="W94" s="4"/>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -30871,7 +30888,7 @@
       <c r="V95" s="4"/>
       <c r="W95" s="2"/>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -30895,7 +30912,7 @@
       <c r="V96" s="2"/>
       <c r="W96" s="2"/>
     </row>
-    <row r="97" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -30919,7 +30936,7 @@
       <c r="V97" s="4"/>
       <c r="W97" s="4"/>
     </row>
-    <row r="98" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -30941,9 +30958,9 @@
       <c r="T98" s="3"/>
       <c r="U98" s="3"/>
       <c r="V98" s="3"/>
-      <c r="W98" s="15"/>
-    </row>
-    <row r="99" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="W98" s="9"/>
+    </row>
+    <row r="99" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -30967,13 +30984,13 @@
       <c r="V99" s="2"/>
       <c r="W99" s="2"/>
     </row>
-    <row r="100" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:24" x14ac:dyDescent="0.25">
       <c r="X100" s="6"/>
     </row>
-    <row r="101" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:24" x14ac:dyDescent="0.25">
       <c r="X101" s="6"/>
     </row>
-    <row r="102" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -30997,7 +31014,7 @@
       <c r="V102" s="2"/>
       <c r="W102" s="2"/>
     </row>
-    <row r="103" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -31022,7 +31039,7 @@
       <c r="W103" s="2"/>
       <c r="X103" s="1"/>
     </row>
-    <row r="104" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -31047,7 +31064,7 @@
       <c r="W104" s="2"/>
       <c r="X104" s="1"/>
     </row>
-    <row r="105" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -31071,7 +31088,7 @@
       <c r="V105" s="4"/>
       <c r="W105" s="4"/>
     </row>
-    <row r="106" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -31096,7 +31113,7 @@
       <c r="W106" s="2"/>
       <c r="X106" s="1"/>
     </row>
-    <row r="107" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -31120,7 +31137,7 @@
       <c r="V107" s="2"/>
       <c r="W107" s="2"/>
     </row>
-    <row r="108" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -31144,7 +31161,7 @@
       <c r="V108" s="4"/>
       <c r="W108" s="4"/>
     </row>
-    <row r="109" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -31168,7 +31185,7 @@
       <c r="V109" s="2"/>
       <c r="W109" s="2"/>
     </row>
-    <row r="110" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -31192,10 +31209,10 @@
       <c r="V110" s="2"/>
       <c r="W110" s="2"/>
     </row>
-    <row r="112" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:24" x14ac:dyDescent="0.25">
       <c r="X112" s="6"/>
     </row>
-    <row r="113" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -31219,7 +31236,7 @@
       <c r="V113" s="3"/>
       <c r="W113" s="2"/>
     </row>
-    <row r="114" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -31243,7 +31260,7 @@
       <c r="V114" s="3"/>
       <c r="W114" s="2"/>
     </row>
-    <row r="115" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -31267,7 +31284,7 @@
       <c r="V115" s="3"/>
       <c r="W115" s="2"/>
     </row>
-    <row r="116" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -31291,7 +31308,7 @@
       <c r="V116" s="5"/>
       <c r="W116" s="4"/>
     </row>
-    <row r="117" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -31315,7 +31332,7 @@
       <c r="V117" s="3"/>
       <c r="W117" s="2"/>
     </row>
-    <row r="118" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -31339,7 +31356,7 @@
       <c r="V118" s="3"/>
       <c r="W118" s="2"/>
     </row>
-    <row r="119" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -31363,7 +31380,7 @@
       <c r="V119" s="5"/>
       <c r="W119" s="4"/>
     </row>
-    <row r="120" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
@@ -31385,9 +31402,9 @@
       <c r="T120" s="3"/>
       <c r="U120" s="3"/>
       <c r="V120" s="3"/>
-      <c r="W120" s="15"/>
-    </row>
-    <row r="121" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="W120" s="9"/>
+    </row>
+    <row r="121" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
@@ -31411,7 +31428,7 @@
       <c r="V121" s="3"/>
       <c r="W121" s="2"/>
     </row>
-    <row r="124" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B124" s="3"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -31435,7 +31452,7 @@
       <c r="V124" s="2"/>
       <c r="W124" s="2"/>
     </row>
-    <row r="125" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
@@ -31459,7 +31476,7 @@
       <c r="V125" s="3"/>
       <c r="W125" s="3"/>
     </row>
-    <row r="126" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B126" s="3"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -31483,7 +31500,7 @@
       <c r="V126" s="2"/>
       <c r="W126" s="2"/>
     </row>
-    <row r="127" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B127" s="3"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
@@ -31507,7 +31524,7 @@
       <c r="V127" s="2"/>
       <c r="W127" s="2"/>
     </row>
-    <row r="128" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B128" s="3"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
@@ -31531,7 +31548,7 @@
       <c r="V128" s="2"/>
       <c r="W128" s="2"/>
     </row>
-    <row r="129" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B129" s="3"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
@@ -31555,7 +31572,7 @@
       <c r="V129" s="2"/>
       <c r="W129" s="2"/>
     </row>
-    <row r="130" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B130" s="3"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
@@ -31579,7 +31596,7 @@
       <c r="V130" s="2"/>
       <c r="W130" s="2"/>
     </row>
-    <row r="131" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B131" s="3"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
@@ -31601,9 +31618,9 @@
       <c r="T131" s="2"/>
       <c r="U131" s="2"/>
       <c r="V131" s="2"/>
-      <c r="W131" s="16"/>
-    </row>
-    <row r="132" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="W131" s="10"/>
+    </row>
+    <row r="132" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B132" s="3"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
@@ -31627,7 +31644,7 @@
       <c r="V132" s="2"/>
       <c r="W132" s="2"/>
     </row>
-    <row r="135" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
@@ -31651,7 +31668,7 @@
       <c r="V135" s="2"/>
       <c r="W135" s="2"/>
     </row>
-    <row r="136" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
@@ -31675,7 +31692,7 @@
       <c r="V136" s="3"/>
       <c r="W136" s="3"/>
     </row>
-    <row r="137" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
@@ -31699,7 +31716,7 @@
       <c r="V137" s="2"/>
       <c r="W137" s="2"/>
     </row>
-    <row r="138" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
@@ -31723,7 +31740,7 @@
       <c r="V138" s="2"/>
       <c r="W138" s="2"/>
     </row>
-    <row r="139" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
@@ -31747,7 +31764,7 @@
       <c r="V139" s="2"/>
       <c r="W139" s="2"/>
     </row>
-    <row r="140" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
@@ -31771,7 +31788,7 @@
       <c r="V140" s="2"/>
       <c r="W140" s="2"/>
     </row>
-    <row r="141" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
@@ -31795,7 +31812,7 @@
       <c r="V141" s="2"/>
       <c r="W141" s="2"/>
     </row>
-    <row r="142" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
@@ -31817,9 +31834,9 @@
       <c r="T142" s="2"/>
       <c r="U142" s="2"/>
       <c r="V142" s="2"/>
-      <c r="W142" s="16"/>
-    </row>
-    <row r="143" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="W142" s="10"/>
+    </row>
+    <row r="143" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
@@ -31843,7 +31860,7 @@
       <c r="V143" s="2"/>
       <c r="W143" s="2"/>
     </row>
-    <row r="146" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
@@ -31868,7 +31885,7 @@
       <c r="W146" s="2"/>
       <c r="X146" s="1"/>
     </row>
-    <row r="147" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
@@ -31892,7 +31909,7 @@
       <c r="V147" s="2"/>
       <c r="W147" s="2"/>
     </row>
-    <row r="148" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -31916,7 +31933,7 @@
       <c r="V148" s="2"/>
       <c r="W148" s="2"/>
     </row>
-    <row r="149" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
@@ -31940,7 +31957,7 @@
       <c r="V149" s="2"/>
       <c r="W149" s="2"/>
     </row>
-    <row r="150" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
@@ -31964,7 +31981,7 @@
       <c r="V150" s="3"/>
       <c r="W150" s="3"/>
     </row>
-    <row r="151" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
@@ -31989,7 +32006,7 @@
       <c r="W151" s="2"/>
       <c r="X151" s="1"/>
     </row>
-    <row r="152" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
@@ -32013,7 +32030,7 @@
       <c r="V152" s="2"/>
       <c r="W152" s="2"/>
     </row>
-    <row r="153" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
@@ -32035,10 +32052,10 @@
       <c r="T153" s="2"/>
       <c r="U153" s="2"/>
       <c r="V153" s="2"/>
-      <c r="W153" s="16"/>
+      <c r="W153" s="10"/>
       <c r="X153" s="1"/>
     </row>
-    <row r="154" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -32063,7 +32080,7 @@
       <c r="W154" s="2"/>
       <c r="X154" s="1"/>
     </row>
-    <row r="157" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
@@ -32087,7 +32104,7 @@
       <c r="V157" s="2"/>
       <c r="W157" s="2"/>
     </row>
-    <row r="158" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
@@ -32111,7 +32128,7 @@
       <c r="V158" s="2"/>
       <c r="W158" s="2"/>
     </row>
-    <row r="159" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -32135,7 +32152,7 @@
       <c r="V159" s="2"/>
       <c r="W159" s="2"/>
     </row>
-    <row r="160" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
@@ -32159,7 +32176,7 @@
       <c r="V160" s="2"/>
       <c r="W160" s="2"/>
     </row>
-    <row r="161" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
@@ -32183,7 +32200,7 @@
       <c r="V161" s="2"/>
       <c r="W161" s="2"/>
     </row>
-    <row r="162" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
@@ -32207,7 +32224,7 @@
       <c r="V162" s="2"/>
       <c r="W162" s="2"/>
     </row>
-    <row r="163" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
@@ -32232,7 +32249,7 @@
       <c r="W163" s="3"/>
       <c r="X163" s="1"/>
     </row>
-    <row r="164" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
@@ -32254,9 +32271,9 @@
       <c r="T164" s="2"/>
       <c r="U164" s="2"/>
       <c r="V164" s="2"/>
-      <c r="W164" s="16"/>
-    </row>
-    <row r="165" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="W164" s="10"/>
+    </row>
+    <row r="165" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
@@ -32280,7 +32297,7 @@
       <c r="V165" s="2"/>
       <c r="W165" s="2"/>
     </row>
-    <row r="168" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
@@ -32304,7 +32321,7 @@
       <c r="V168" s="2"/>
       <c r="W168" s="2"/>
     </row>
-    <row r="169" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
@@ -32328,7 +32345,7 @@
       <c r="V169" s="2"/>
       <c r="W169" s="2"/>
     </row>
-    <row r="170" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
@@ -32352,7 +32369,7 @@
       <c r="V170" s="2"/>
       <c r="W170" s="2"/>
     </row>
-    <row r="171" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
@@ -32377,7 +32394,7 @@
       <c r="W171" s="2"/>
       <c r="X171" s="1"/>
     </row>
-    <row r="172" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
@@ -32401,7 +32418,7 @@
       <c r="V172" s="2"/>
       <c r="W172" s="2"/>
     </row>
-    <row r="173" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
@@ -32425,7 +32442,7 @@
       <c r="V173" s="2"/>
       <c r="W173" s="2"/>
     </row>
-    <row r="174" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
@@ -32450,7 +32467,7 @@
       <c r="W174" s="3"/>
       <c r="X174" s="1"/>
     </row>
-    <row r="175" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
@@ -32472,9 +32489,9 @@
       <c r="T175" s="2"/>
       <c r="U175" s="2"/>
       <c r="V175" s="2"/>
-      <c r="W175" s="16"/>
-    </row>
-    <row r="176" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="W175" s="10"/>
+    </row>
+    <row r="176" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
@@ -32498,7 +32515,7 @@
       <c r="V176" s="2"/>
       <c r="W176" s="2"/>
     </row>
-    <row r="179" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
@@ -32522,7 +32539,7 @@
       <c r="V179" s="2"/>
       <c r="W179" s="2"/>
     </row>
-    <row r="180" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
@@ -32546,7 +32563,7 @@
       <c r="V180" s="2"/>
       <c r="W180" s="2"/>
     </row>
-    <row r="181" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
@@ -32570,7 +32587,7 @@
       <c r="V181" s="2"/>
       <c r="W181" s="2"/>
     </row>
-    <row r="182" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
@@ -32595,7 +32612,7 @@
       <c r="W182" s="3"/>
       <c r="X182" s="1"/>
     </row>
-    <row r="183" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
@@ -32619,7 +32636,7 @@
       <c r="V183" s="2"/>
       <c r="W183" s="2"/>
     </row>
-    <row r="184" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
@@ -32643,7 +32660,7 @@
       <c r="V184" s="2"/>
       <c r="W184" s="2"/>
     </row>
-    <row r="185" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
@@ -32667,7 +32684,7 @@
       <c r="V185" s="2"/>
       <c r="W185" s="2"/>
     </row>
-    <row r="186" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
@@ -32691,7 +32708,7 @@
       <c r="V186" s="2"/>
       <c r="W186" s="2"/>
     </row>
-    <row r="187" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
@@ -32715,10 +32732,10 @@
       <c r="V187" s="2"/>
       <c r="W187" s="2"/>
     </row>
-    <row r="189" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:24" x14ac:dyDescent="0.25">
       <c r="X189" s="6"/>
     </row>
-    <row r="190" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
@@ -32742,7 +32759,7 @@
       <c r="V190" s="2"/>
       <c r="W190" s="2"/>
     </row>
-    <row r="191" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
@@ -32766,7 +32783,7 @@
       <c r="V191" s="2"/>
       <c r="W191" s="2"/>
     </row>
-    <row r="192" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
@@ -32790,7 +32807,7 @@
       <c r="V192" s="2"/>
       <c r="W192" s="2"/>
     </row>
-    <row r="193" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
@@ -32814,7 +32831,7 @@
       <c r="V193" s="2"/>
       <c r="W193" s="2"/>
     </row>
-    <row r="194" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
@@ -32838,7 +32855,7 @@
       <c r="V194" s="2"/>
       <c r="W194" s="2"/>
     </row>
-    <row r="195" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
@@ -32862,7 +32879,7 @@
       <c r="V195" s="2"/>
       <c r="W195" s="2"/>
     </row>
-    <row r="196" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
@@ -32886,7 +32903,7 @@
       <c r="V196" s="2"/>
       <c r="W196" s="2"/>
     </row>
-    <row r="197" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
@@ -32910,7 +32927,7 @@
       <c r="V197" s="3"/>
       <c r="W197" s="3"/>
     </row>
-    <row r="198" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
@@ -32941,1587 +32958,2063 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5CF19E6-2C9A-4434-9A6E-D3F4BCC48AD9}">
-  <dimension ref="A1:Y21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="10" width="4.28515625" style="11" customWidth="1"/>
+    <col min="11" max="19" width="7.140625" style="11" customWidth="1"/>
+    <col min="20" max="20" width="8.28515625" style="11" customWidth="1"/>
+    <col min="21" max="21" width="6.5703125" style="11" customWidth="1"/>
+    <col min="22" max="22" width="8.140625" style="11" customWidth="1"/>
+    <col min="23" max="24" width="9.140625" style="11"/>
+    <col min="25" max="25" width="7.42578125" style="11" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="11"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C1" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1">
+      <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F1">
+      <c r="F2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G1">
+      <c r="G2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H1">
+      <c r="H2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I1">
+      <c r="I2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J1">
+      <c r="J2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K1">
+      <c r="K2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L1">
+      <c r="L2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M1">
+      <c r="M2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N1">
+      <c r="N2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="O1">
+      <c r="O2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="P1">
+      <c r="P2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="Q1">
+      <c r="Q2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="R1">
+      <c r="R2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="S1">
+      <c r="S2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="T1">
-        <v>18</v>
-      </c>
-      <c r="U1">
+      <c r="T2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
+        <v>0</v>
+      </c>
+      <c r="B3" s="15">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0</v>
+      </c>
+      <c r="F3" s="15">
+        <v>0</v>
+      </c>
+      <c r="G3" s="15">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15">
+        <v>0</v>
+      </c>
+      <c r="J3" s="15">
+        <v>0</v>
+      </c>
+      <c r="K3" s="15">
+        <v>-0.1875</v>
+      </c>
+      <c r="L3" s="15">
+        <v>0.37500000000000239</v>
+      </c>
+      <c r="M3" s="15">
+        <v>-0.1875000000000008</v>
+      </c>
+      <c r="N3" s="15">
+        <v>0</v>
+      </c>
+      <c r="O3" s="15">
+        <v>0</v>
+      </c>
+      <c r="P3" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15">
+        <v>0</v>
+      </c>
+      <c r="R3" s="15">
+        <v>0</v>
+      </c>
+      <c r="S3" s="15">
+        <v>0</v>
+      </c>
+      <c r="T3" s="15">
+        <v>9.3749999999999972E-2</v>
+      </c>
+      <c r="U3" s="15">
+        <v>1</v>
+      </c>
+      <c r="V3" s="11">
+        <v>10.66666666666667</v>
+      </c>
+      <c r="W3" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0</v>
+      </c>
+      <c r="J4" s="13">
+        <v>0</v>
+      </c>
+      <c r="K4" s="13">
+        <v>0.37499999999999989</v>
+      </c>
+      <c r="L4" s="13">
+        <v>-0.75</v>
+      </c>
+      <c r="M4" s="13">
+        <v>0.37500000000000111</v>
+      </c>
+      <c r="N4" s="13">
+        <v>0</v>
+      </c>
+      <c r="O4" s="13">
+        <v>0</v>
+      </c>
+      <c r="P4" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>0</v>
+      </c>
+      <c r="R4" s="13">
+        <v>0</v>
+      </c>
+      <c r="S4" s="13">
+        <v>0</v>
+      </c>
+      <c r="T4" s="15">
+        <v>-0.6875</v>
+      </c>
+      <c r="U4" s="13">
+        <v>1</v>
+      </c>
+      <c r="W4" s="11">
         <v>19</v>
       </c>
-      <c r="X1" s="7"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="8">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8">
-        <v>0</v>
-      </c>
-      <c r="D2" s="8">
-        <v>0</v>
-      </c>
-      <c r="E2" s="8">
-        <v>0</v>
-      </c>
-      <c r="F2" s="8">
-        <v>0</v>
-      </c>
-      <c r="G2" s="8">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8">
-        <v>0</v>
-      </c>
-      <c r="J2" s="8">
-        <v>1.153846153846154</v>
-      </c>
-      <c r="K2" s="8">
-        <v>-0.1153846153846154</v>
-      </c>
-      <c r="L2" s="8">
-        <v>0.23076923076923139</v>
-      </c>
-      <c r="M2" s="8">
-        <v>-0.115384615384616</v>
-      </c>
-      <c r="N2" s="8">
-        <v>0</v>
-      </c>
-      <c r="O2" s="8">
-        <v>-0.57692307692307698</v>
-      </c>
-      <c r="P2" s="8">
-        <v>0.57692307692307698</v>
-      </c>
-      <c r="Q2" s="8">
-        <v>0</v>
-      </c>
-      <c r="R2" s="8">
-        <v>0.57692307692307698</v>
-      </c>
-      <c r="S2" s="8">
-        <v>-0.57692307692307698</v>
-      </c>
-      <c r="T2" s="8">
-        <v>-2.1538461538461529</v>
-      </c>
-      <c r="U2" s="8">
-        <v>0</v>
-      </c>
-      <c r="V2" s="8">
-        <v>-0.23076923076923039</v>
-      </c>
-      <c r="W2" s="8">
-        <v>0.15384615384615399</v>
-      </c>
-      <c r="X2" s="7">
-        <v>0.13333333333333339</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8">
-        <v>-8.4615384615384563</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0.34615384615384609</v>
-      </c>
-      <c r="L3" s="2">
-        <v>-0.69230769230769207</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0.34615384615384642</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2">
-        <v>4.2307692307692282</v>
-      </c>
-      <c r="P3" s="2">
-        <v>-4.2307692307692282</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>0</v>
-      </c>
-      <c r="R3" s="2">
-        <v>-4.2307692307692282</v>
-      </c>
-      <c r="S3" s="2">
-        <v>4.2307692307692282</v>
-      </c>
-      <c r="T3" s="2">
-        <v>7.461538461538451</v>
-      </c>
-      <c r="U3" s="2">
-        <v>0</v>
-      </c>
-      <c r="V3" s="2">
-        <v>1.692307692307691</v>
-      </c>
-      <c r="W3" s="2">
-        <v>2.538461538461537</v>
-      </c>
-      <c r="X3" s="7"/>
-      <c r="Y3">
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
+        <v>2</v>
+      </c>
+      <c r="B5" s="13">
+        <v>0</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0</v>
+      </c>
+      <c r="J5" s="13">
+        <v>0</v>
+      </c>
+      <c r="K5" s="13">
+        <v>-0.18750000000000011</v>
+      </c>
+      <c r="L5" s="13">
+        <v>0.37500000000000011</v>
+      </c>
+      <c r="M5" s="13">
+        <v>-0.18749999999999981</v>
+      </c>
+      <c r="N5" s="13">
+        <v>0</v>
+      </c>
+      <c r="O5" s="13">
+        <v>0</v>
+      </c>
+      <c r="P5" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>0</v>
+      </c>
+      <c r="R5" s="13">
+        <v>0</v>
+      </c>
+      <c r="S5" s="13">
+        <v>0</v>
+      </c>
+      <c r="T5" s="15">
+        <v>-0.40625</v>
+      </c>
+      <c r="U5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
+        <v>3</v>
+      </c>
+      <c r="B6" s="13">
+        <v>0</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13">
+        <v>1</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0</v>
+      </c>
+      <c r="K6" s="13">
+        <v>-0.1125</v>
+      </c>
+      <c r="L6" s="13">
+        <v>0.22500000000000139</v>
+      </c>
+      <c r="M6" s="13">
+        <v>-0.1125000000000005</v>
+      </c>
+      <c r="N6" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="O6" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="S6" s="13">
+        <v>0</v>
+      </c>
+      <c r="T6" s="15">
+        <v>5.6249999999999981E-2</v>
+      </c>
+      <c r="U6" s="13">
+        <v>1</v>
+      </c>
+      <c r="V6" s="11">
+        <v>17.777777777777789</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
+        <v>4</v>
+      </c>
+      <c r="B7" s="13">
+        <v>0</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0</v>
+      </c>
+      <c r="F7" s="13">
+        <v>1</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0</v>
+      </c>
+      <c r="K7" s="13">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="L7" s="13">
+        <v>-0.45</v>
+      </c>
+      <c r="M7" s="13">
+        <v>0.22500000000000059</v>
+      </c>
+      <c r="N7" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="O7" s="13">
+        <v>-1</v>
+      </c>
+      <c r="P7" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="R7" s="13">
+        <v>1</v>
+      </c>
+      <c r="S7" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="T7" s="15">
+        <v>-0.41249999999999998</v>
+      </c>
+      <c r="U7" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" s="14">
+        <v>5</v>
+      </c>
+      <c r="B8" s="13">
+        <v>0</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0</v>
+      </c>
+      <c r="G8" s="13">
+        <v>1</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+      <c r="I8" s="13">
+        <v>0</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0</v>
+      </c>
+      <c r="K8" s="13">
+        <v>-0.1125000000000001</v>
+      </c>
+      <c r="L8" s="13">
+        <v>0.22500000000000009</v>
+      </c>
+      <c r="M8" s="13">
+        <v>-0.11249999999999991</v>
+      </c>
+      <c r="N8" s="13">
+        <v>0</v>
+      </c>
+      <c r="O8" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="P8" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>0</v>
+      </c>
+      <c r="R8" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="S8" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="T8" s="15">
+        <v>-0.24374999999999999</v>
+      </c>
+      <c r="U8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
+        <v>6</v>
+      </c>
+      <c r="B9" s="13">
+        <v>0</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0</v>
+      </c>
+      <c r="H9" s="13">
+        <v>1</v>
+      </c>
+      <c r="I9" s="13">
+        <v>0</v>
+      </c>
+      <c r="J9" s="13">
+        <v>0</v>
+      </c>
+      <c r="K9" s="13">
+        <v>-0.1125</v>
+      </c>
+      <c r="L9" s="13">
+        <v>0.22500000000000139</v>
+      </c>
+      <c r="M9" s="13">
+        <v>-0.1125000000000005</v>
+      </c>
+      <c r="N9" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="O9" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="P9" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="R9" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="S9" s="13">
+        <v>0</v>
+      </c>
+      <c r="T9" s="15">
+        <v>5.6249999999999981E-2</v>
+      </c>
+      <c r="U9" s="13">
+        <v>1</v>
+      </c>
+      <c r="V9" s="11">
+        <v>17.777777777777789</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
+        <v>7</v>
+      </c>
+      <c r="B10" s="13">
+        <v>0</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0</v>
+      </c>
+      <c r="I10" s="13">
+        <v>1</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0</v>
+      </c>
+      <c r="K10" s="13">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="L10" s="13">
+        <v>-0.45</v>
+      </c>
+      <c r="M10" s="13">
+        <v>0.22500000000000059</v>
+      </c>
+      <c r="N10" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="O10" s="13">
+        <v>1</v>
+      </c>
+      <c r="P10" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="R10" s="13">
+        <v>-1</v>
+      </c>
+      <c r="S10" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="T10" s="15">
+        <v>-0.41249999999999998</v>
+      </c>
+      <c r="U10" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" s="14">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="B11" s="13">
+        <v>0</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0</v>
+      </c>
+      <c r="J11" s="13">
+        <v>1</v>
+      </c>
+      <c r="K11" s="13">
+        <v>-0.1125000000000001</v>
+      </c>
+      <c r="L11" s="13">
+        <v>0.22500000000000009</v>
+      </c>
+      <c r="M11" s="13">
+        <v>-0.11249999999999991</v>
+      </c>
+      <c r="N11" s="13">
+        <v>0</v>
+      </c>
+      <c r="O11" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="P11" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>0</v>
+      </c>
+      <c r="R11" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="S11" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="T11" s="15">
+        <v>-0.24374999999999999</v>
+      </c>
+      <c r="U11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" s="14"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1</v>
-      </c>
-      <c r="J4" s="8">
-        <v>-1.692307692307691</v>
-      </c>
-      <c r="K4" s="2">
-        <v>6.9230769230769235E-2</v>
-      </c>
-      <c r="L4" s="2">
-        <v>-0.1384615384615385</v>
-      </c>
-      <c r="M4" s="2">
-        <v>6.9230769230769276E-2</v>
-      </c>
-      <c r="N4" s="2">
-        <v>-0.5</v>
-      </c>
-      <c r="O4" s="2">
-        <v>1.8461538461538449</v>
-      </c>
-      <c r="P4" s="2">
-        <v>-1.3461538461538449</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="R4" s="2">
-        <v>-1.8461538461538449</v>
-      </c>
-      <c r="S4" s="2">
-        <v>1.3461538461538449</v>
-      </c>
-      <c r="T4" s="2">
-        <v>0.69230769230768818</v>
-      </c>
-      <c r="U4" s="2">
-        <v>0</v>
-      </c>
-      <c r="V4" s="2">
-        <v>0.33846153846153798</v>
-      </c>
-      <c r="W4" s="2">
-        <v>0.50769230769230744</v>
-      </c>
-      <c r="X4" s="7"/>
-    </row>
-    <row r="5" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+      <c r="J13" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="S13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="U13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="V13" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="14">
+        <v>19</v>
+      </c>
+      <c r="B14" s="13">
+        <v>10.66666666666667</v>
+      </c>
+      <c r="C14" s="13">
+        <v>0</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0</v>
+      </c>
+      <c r="K14" s="15">
+        <v>-2</v>
+      </c>
+      <c r="L14" s="13">
+        <v>4.0000000000000284</v>
+      </c>
+      <c r="M14" s="13">
+        <v>-2.0000000000000089</v>
+      </c>
+      <c r="N14" s="13">
+        <v>0</v>
+      </c>
+      <c r="O14" s="13">
+        <v>0</v>
+      </c>
+      <c r="P14" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>0</v>
+      </c>
+      <c r="R14" s="13">
+        <v>0</v>
+      </c>
+      <c r="S14" s="13">
+        <v>0</v>
+      </c>
+      <c r="T14" s="13">
+        <v>1</v>
+      </c>
+      <c r="U14" s="13">
+        <v>10.66666666666667</v>
+      </c>
+      <c r="W14" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
+        <v>1</v>
+      </c>
+      <c r="B15" s="13">
+        <v>7.3333333333333357</v>
+      </c>
+      <c r="C15" s="13">
+        <v>1</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="15">
+        <v>-1</v>
+      </c>
+      <c r="L15" s="13">
+        <v>2.0000000000000191</v>
+      </c>
+      <c r="M15" s="13">
+        <v>-1.000000000000006</v>
+      </c>
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13">
+        <v>0</v>
+      </c>
+      <c r="P15" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>0</v>
+      </c>
+      <c r="R15" s="13">
+        <v>0</v>
+      </c>
+      <c r="S15" s="13">
+        <v>0</v>
+      </c>
+      <c r="T15" s="13">
+        <v>1.110223024625157E-16</v>
+      </c>
+      <c r="U15" s="13">
+        <v>8.3333333333333357</v>
+      </c>
+      <c r="W15" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" s="14">
+        <v>2</v>
+      </c>
+      <c r="B16" s="13">
+        <v>4.3333333333333348</v>
+      </c>
+      <c r="C16" s="13">
+        <v>0</v>
+      </c>
+      <c r="D16" s="13">
+        <v>1</v>
+      </c>
+      <c r="E16" s="13">
+        <v>0</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0</v>
+      </c>
+      <c r="G16" s="13">
+        <v>0</v>
+      </c>
+      <c r="H16" s="13">
+        <v>0</v>
+      </c>
+      <c r="I16" s="13">
+        <v>0</v>
+      </c>
+      <c r="J16" s="13">
+        <v>0</v>
+      </c>
+      <c r="K16" s="15">
+        <v>-1</v>
+      </c>
+      <c r="L16" s="13">
+        <v>2.0000000000000111</v>
+      </c>
+      <c r="M16" s="13">
+        <v>-1.000000000000004</v>
+      </c>
+      <c r="N16" s="13">
+        <v>0</v>
+      </c>
+      <c r="O16" s="13">
+        <v>0</v>
+      </c>
+      <c r="P16" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>0</v>
+      </c>
+      <c r="R16" s="13">
+        <v>0</v>
+      </c>
+      <c r="S16" s="13">
+        <v>0</v>
+      </c>
+      <c r="T16" s="13">
+        <v>-5.5511151231257827E-17</v>
+      </c>
+      <c r="U16" s="13">
+        <v>5.3333333333333348</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" s="14">
         <v>3</v>
       </c>
-      <c r="B5" s="12">
-        <v>0</v>
-      </c>
-      <c r="C5" s="12">
-        <v>0</v>
-      </c>
-      <c r="D5" s="12">
-        <v>0</v>
-      </c>
-      <c r="E5" s="12">
-        <v>1</v>
-      </c>
-      <c r="F5" s="12">
-        <v>0</v>
-      </c>
-      <c r="G5" s="12">
-        <v>0</v>
-      </c>
-      <c r="H5" s="12">
-        <v>0</v>
-      </c>
-      <c r="I5" s="12">
+      <c r="B17" s="13">
+        <v>-0.6</v>
+      </c>
+      <c r="C17" s="13">
+        <v>0</v>
+      </c>
+      <c r="D17" s="13">
+        <v>0</v>
+      </c>
+      <c r="E17" s="13">
+        <v>1</v>
+      </c>
+      <c r="F17" s="13">
+        <v>0</v>
+      </c>
+      <c r="G17" s="13">
+        <v>0</v>
+      </c>
+      <c r="H17" s="13">
+        <v>0</v>
+      </c>
+      <c r="I17" s="13">
+        <v>0</v>
+      </c>
+      <c r="J17" s="13">
+        <v>0</v>
+      </c>
+      <c r="K17" s="15">
         <v>1.387778780781446E-17</v>
       </c>
-      <c r="J5" s="12">
-        <v>0.23076923076923039</v>
-      </c>
-      <c r="K5" s="12">
-        <v>-2.3076923076923071E-2</v>
-      </c>
-      <c r="L5" s="12">
-        <v>4.6153846153846219E-2</v>
-      </c>
-      <c r="M5" s="12">
-        <v>-2.30769230769232E-2</v>
-      </c>
-      <c r="N5" s="12">
-        <v>-0.5</v>
-      </c>
-      <c r="O5" s="12">
-        <v>0.3846153846153848</v>
-      </c>
-      <c r="P5" s="12">
-        <v>0.1153846153846152</v>
-      </c>
-      <c r="Q5" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="R5" s="12">
-        <v>-0.3846153846153848</v>
-      </c>
-      <c r="S5" s="12">
-        <v>-0.1153846153846152</v>
-      </c>
-      <c r="T5" s="12">
-        <v>-1.2307692307692311</v>
-      </c>
-      <c r="U5" s="12">
-        <v>0</v>
-      </c>
-      <c r="V5" s="12">
-        <v>-4.6153846153846073E-2</v>
-      </c>
-      <c r="W5" s="12">
-        <v>3.0769230769230861E-2</v>
-      </c>
-      <c r="X5" s="13">
-        <v>0.13333333333333389</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="L17" s="13">
+        <v>0</v>
+      </c>
+      <c r="M17" s="13">
+        <v>0</v>
+      </c>
+      <c r="N17" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="O17" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="P17" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="R17" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="S17" s="13">
+        <v>0</v>
+      </c>
+      <c r="T17" s="13">
+        <v>0</v>
+      </c>
+      <c r="U17" s="13">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18" s="14">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8">
-        <v>-1.692307692307691</v>
-      </c>
-      <c r="K6" s="2">
-        <v>6.9230769230769262E-2</v>
-      </c>
-      <c r="L6" s="2">
-        <v>-0.13846153846153841</v>
-      </c>
-      <c r="M6" s="2">
-        <v>6.9230769230769304E-2</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0.49999999999999989</v>
-      </c>
-      <c r="O6" s="2">
-        <v>-0.1538461538461541</v>
-      </c>
-      <c r="P6" s="2">
-        <v>-0.34615384615384581</v>
-      </c>
-      <c r="Q6" s="2">
+      <c r="B18" s="13">
+        <v>4.4000000000000012</v>
+      </c>
+      <c r="C18" s="13">
+        <v>0</v>
+      </c>
+      <c r="D18" s="13">
+        <v>0</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0</v>
+      </c>
+      <c r="F18" s="13">
+        <v>1</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0</v>
+      </c>
+      <c r="I18" s="13">
+        <v>0</v>
+      </c>
+      <c r="J18" s="13">
+        <v>0</v>
+      </c>
+      <c r="K18" s="15">
+        <v>-0.6000000000000002</v>
+      </c>
+      <c r="L18" s="13">
+        <v>1.2000000000000111</v>
+      </c>
+      <c r="M18" s="13">
+        <v>-0.6000000000000032</v>
+      </c>
+      <c r="N18" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="O18" s="13">
+        <v>-1</v>
+      </c>
+      <c r="P18" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="R18" s="13">
+        <v>1</v>
+      </c>
+      <c r="S18" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="T18" s="13">
+        <v>0</v>
+      </c>
+      <c r="U18" s="13">
+        <v>5.4000000000000012</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A19" s="14">
+        <v>5</v>
+      </c>
+      <c r="B19" s="13">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="C19" s="13">
+        <v>0</v>
+      </c>
+      <c r="D19" s="13">
+        <v>0</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0</v>
+      </c>
+      <c r="G19" s="13">
+        <v>1</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0</v>
+      </c>
+      <c r="I19" s="13">
+        <v>0</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0</v>
+      </c>
+      <c r="K19" s="15">
+        <v>-0.6000000000000002</v>
+      </c>
+      <c r="L19" s="13">
+        <v>1.2000000000000071</v>
+      </c>
+      <c r="M19" s="13">
+        <v>-0.60000000000000209</v>
+      </c>
+      <c r="N19" s="13">
+        <v>0</v>
+      </c>
+      <c r="O19" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="P19" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>0</v>
+      </c>
+      <c r="R19" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="S19" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="T19" s="13">
+        <v>0</v>
+      </c>
+      <c r="U19" s="13">
+        <v>3.600000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A20" s="14">
+        <v>6</v>
+      </c>
+      <c r="B20" s="13">
+        <v>-0.6</v>
+      </c>
+      <c r="C20" s="13">
+        <v>0</v>
+      </c>
+      <c r="D20" s="13">
+        <v>0</v>
+      </c>
+      <c r="E20" s="13">
+        <v>0</v>
+      </c>
+      <c r="F20" s="13">
+        <v>0</v>
+      </c>
+      <c r="G20" s="13">
+        <v>0</v>
+      </c>
+      <c r="H20" s="13">
+        <v>1</v>
+      </c>
+      <c r="I20" s="13">
+        <v>0</v>
+      </c>
+      <c r="J20" s="13">
+        <v>0</v>
+      </c>
+      <c r="K20" s="15">
+        <v>1.387778780781446E-17</v>
+      </c>
+      <c r="L20" s="13">
+        <v>0</v>
+      </c>
+      <c r="M20" s="13">
+        <v>0</v>
+      </c>
+      <c r="N20" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="O20" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="P20" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="R20" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="S20" s="13">
+        <v>0</v>
+      </c>
+      <c r="T20" s="13">
+        <v>0</v>
+      </c>
+      <c r="U20" s="13">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A21" s="14">
+        <v>7</v>
+      </c>
+      <c r="B21" s="13">
+        <v>4.4000000000000012</v>
+      </c>
+      <c r="C21" s="13">
+        <v>0</v>
+      </c>
+      <c r="D21" s="13">
+        <v>0</v>
+      </c>
+      <c r="E21" s="13">
+        <v>0</v>
+      </c>
+      <c r="F21" s="13">
+        <v>0</v>
+      </c>
+      <c r="G21" s="13">
+        <v>0</v>
+      </c>
+      <c r="H21" s="13">
+        <v>0</v>
+      </c>
+      <c r="I21" s="13">
+        <v>1</v>
+      </c>
+      <c r="J21" s="13">
+        <v>0</v>
+      </c>
+      <c r="K21" s="15">
+        <v>-0.6000000000000002</v>
+      </c>
+      <c r="L21" s="13">
+        <v>1.2000000000000111</v>
+      </c>
+      <c r="M21" s="13">
+        <v>-0.6000000000000032</v>
+      </c>
+      <c r="N21" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="O21" s="13">
+        <v>1</v>
+      </c>
+      <c r="P21" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="Q21" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="R21" s="13">
+        <v>-1</v>
+      </c>
+      <c r="S21" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="T21" s="13">
+        <v>0</v>
+      </c>
+      <c r="U21" s="13">
+        <v>5.4000000000000012</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A22" s="14">
+        <v>8</v>
+      </c>
+      <c r="B22" s="13">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="C22" s="13">
+        <v>0</v>
+      </c>
+      <c r="D22" s="13">
+        <v>0</v>
+      </c>
+      <c r="E22" s="13">
+        <v>0</v>
+      </c>
+      <c r="F22" s="13">
+        <v>0</v>
+      </c>
+      <c r="G22" s="13">
+        <v>0</v>
+      </c>
+      <c r="H22" s="13">
+        <v>0</v>
+      </c>
+      <c r="I22" s="13">
+        <v>0</v>
+      </c>
+      <c r="J22" s="13">
+        <v>1</v>
+      </c>
+      <c r="K22" s="15">
+        <v>-0.6000000000000002</v>
+      </c>
+      <c r="L22" s="13">
+        <v>1.2000000000000071</v>
+      </c>
+      <c r="M22" s="13">
+        <v>-0.60000000000000209</v>
+      </c>
+      <c r="N22" s="13">
+        <v>0</v>
+      </c>
+      <c r="O22" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="P22" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="Q22" s="13">
+        <v>0</v>
+      </c>
+      <c r="R22" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="S22" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="T22" s="13">
+        <v>0</v>
+      </c>
+      <c r="U22" s="13">
+        <v>3.600000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A23" s="14"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="N24" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q24" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="R24" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="S24" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="T24" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="U24" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="V24" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A25" s="14">
+        <v>9</v>
+      </c>
+      <c r="B25" s="13">
+        <v>-5.3333333333333339</v>
+      </c>
+      <c r="C25" s="13">
+        <v>0</v>
+      </c>
+      <c r="D25" s="13">
+        <v>0</v>
+      </c>
+      <c r="E25" s="13">
+        <v>0</v>
+      </c>
+      <c r="F25" s="13">
+        <v>0</v>
+      </c>
+      <c r="G25" s="13">
+        <v>0</v>
+      </c>
+      <c r="H25" s="13">
+        <v>0</v>
+      </c>
+      <c r="I25" s="13">
+        <v>0</v>
+      </c>
+      <c r="J25" s="13">
+        <v>0</v>
+      </c>
+      <c r="K25" s="13">
+        <v>1</v>
+      </c>
+      <c r="L25" s="13">
+        <v>-2.0000000000000129</v>
+      </c>
+      <c r="M25" s="13">
+        <v>1.000000000000004</v>
+      </c>
+      <c r="N25" s="13">
+        <v>0</v>
+      </c>
+      <c r="O25" s="13">
+        <v>0</v>
+      </c>
+      <c r="P25" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="13">
+        <v>0</v>
+      </c>
+      <c r="R25" s="13">
+        <v>0</v>
+      </c>
+      <c r="S25" s="13">
+        <v>0</v>
+      </c>
+      <c r="T25" s="13">
         <v>-0.49999999999999989</v>
       </c>
-      <c r="R6" s="2">
-        <v>0.1538461538461541</v>
-      </c>
-      <c r="S6" s="2">
-        <v>0.34615384615384581</v>
-      </c>
-      <c r="T6" s="2">
-        <v>0.69230769230769129</v>
-      </c>
-      <c r="U6" s="2">
-        <v>0</v>
-      </c>
-      <c r="V6" s="2">
-        <v>0.33846153846153842</v>
-      </c>
-      <c r="W6" s="2">
-        <v>0.50769230769230766</v>
-      </c>
-      <c r="X6" s="7"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="U25" s="13">
+        <v>-5.3333333333333339</v>
+      </c>
+      <c r="W25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A26" s="14">
+        <v>1</v>
+      </c>
+      <c r="B26" s="13">
+        <v>1.9999999999999989</v>
+      </c>
+      <c r="C26" s="13">
+        <v>1</v>
+      </c>
+      <c r="D26" s="13">
+        <v>0</v>
+      </c>
+      <c r="E26" s="13">
+        <v>0</v>
+      </c>
+      <c r="F26" s="13">
+        <v>0</v>
+      </c>
+      <c r="G26" s="13">
+        <v>0</v>
+      </c>
+      <c r="H26" s="13">
+        <v>0</v>
+      </c>
+      <c r="I26" s="13">
+        <v>0</v>
+      </c>
+      <c r="J26" s="13">
+        <v>0</v>
+      </c>
+      <c r="K26" s="13">
+        <v>0</v>
+      </c>
+      <c r="L26" s="13">
+        <v>4.4408920985006262E-15</v>
+      </c>
+      <c r="M26" s="13">
+        <v>-6.6613381477509392E-16</v>
+      </c>
+      <c r="N26" s="13">
+        <v>0</v>
+      </c>
+      <c r="O26" s="13">
+        <v>0</v>
+      </c>
+      <c r="P26" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="13">
+        <v>0</v>
+      </c>
+      <c r="R26" s="13">
+        <v>0</v>
+      </c>
+      <c r="S26" s="13">
+        <v>0</v>
+      </c>
+      <c r="T26" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="U26" s="13">
+        <v>2.9999999999999991</v>
+      </c>
+      <c r="W26" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A27" s="14">
+        <v>2</v>
+      </c>
+      <c r="B27" s="13">
+        <v>-1.000000000000002</v>
+      </c>
+      <c r="C27" s="13">
+        <v>0</v>
+      </c>
+      <c r="D27" s="13">
+        <v>1</v>
+      </c>
+      <c r="E27" s="13">
+        <v>0</v>
+      </c>
+      <c r="F27" s="13">
+        <v>0</v>
+      </c>
+      <c r="G27" s="13">
+        <v>0</v>
+      </c>
+      <c r="H27" s="13">
+        <v>0</v>
+      </c>
+      <c r="I27" s="13">
+        <v>0</v>
+      </c>
+      <c r="J27" s="13">
+        <v>0</v>
+      </c>
+      <c r="K27" s="13">
+        <v>0</v>
+      </c>
+      <c r="L27" s="13">
+        <v>-3.1086244689504379E-15</v>
+      </c>
+      <c r="M27" s="13">
+        <v>1.332267629550188E-15</v>
+      </c>
+      <c r="N27" s="13">
+        <v>0</v>
+      </c>
+      <c r="O27" s="13">
+        <v>0</v>
+      </c>
+      <c r="P27" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="13">
+        <v>0</v>
+      </c>
+      <c r="R27" s="13">
+        <v>0</v>
+      </c>
+      <c r="S27" s="13">
+        <v>0</v>
+      </c>
+      <c r="T27" s="13">
+        <v>-0.50000000000000022</v>
+      </c>
+      <c r="U27" s="13">
+        <v>-1.7763568394002501E-15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A28" s="14">
+        <v>3</v>
+      </c>
+      <c r="B28" s="13">
+        <v>-0.59999999999999987</v>
+      </c>
+      <c r="C28" s="13">
+        <v>0</v>
+      </c>
+      <c r="D28" s="13">
+        <v>0</v>
+      </c>
+      <c r="E28" s="13">
+        <v>1</v>
+      </c>
+      <c r="F28" s="13">
+        <v>0</v>
+      </c>
+      <c r="G28" s="13">
+        <v>0</v>
+      </c>
+      <c r="H28" s="13">
+        <v>0</v>
+      </c>
+      <c r="I28" s="13">
+        <v>0</v>
+      </c>
+      <c r="J28" s="13">
+        <v>0</v>
+      </c>
+      <c r="K28" s="13">
+        <v>0</v>
+      </c>
+      <c r="L28" s="13">
+        <v>2.7755575615629098E-17</v>
+      </c>
+      <c r="M28" s="13">
+        <v>-1.3877787807814521E-17</v>
+      </c>
+      <c r="N28" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="O28" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="P28" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="R28" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="S28" s="13">
+        <v>0</v>
+      </c>
+      <c r="T28" s="13">
+        <v>6.9388939039072268E-18</v>
+      </c>
+      <c r="U28" s="13">
+        <v>0.40000000000000008</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A29" s="14">
+        <v>4</v>
+      </c>
+      <c r="B29" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="C29" s="13">
+        <v>0</v>
+      </c>
+      <c r="D29" s="13">
+        <v>0</v>
+      </c>
+      <c r="E29" s="13">
+        <v>0</v>
+      </c>
+      <c r="F29" s="13">
+        <v>1</v>
+      </c>
+      <c r="G29" s="13">
+        <v>0</v>
+      </c>
+      <c r="H29" s="13">
+        <v>0</v>
+      </c>
+      <c r="I29" s="13">
+        <v>0</v>
+      </c>
+      <c r="J29" s="13">
+        <v>0</v>
+      </c>
+      <c r="K29" s="13">
+        <v>0</v>
+      </c>
+      <c r="L29" s="13">
+        <v>2.886579864025407E-15</v>
+      </c>
+      <c r="M29" s="13">
+        <v>-3.3306690738754701E-16</v>
+      </c>
+      <c r="N29" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="O29" s="13">
+        <v>-1</v>
+      </c>
+      <c r="P29" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="Q29" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="R29" s="13">
+        <v>1</v>
+      </c>
+      <c r="S29" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="T29" s="13">
+        <v>-0.3</v>
+      </c>
+      <c r="U29" s="13">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A30" s="14">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8">
+      <c r="B30" s="13">
+        <v>-0.60000000000000053</v>
+      </c>
+      <c r="C30" s="13">
+        <v>0</v>
+      </c>
+      <c r="D30" s="13">
+        <v>0</v>
+      </c>
+      <c r="E30" s="13">
+        <v>0</v>
+      </c>
+      <c r="F30" s="13">
+        <v>0</v>
+      </c>
+      <c r="G30" s="13">
+        <v>1</v>
+      </c>
+      <c r="H30" s="13">
+        <v>0</v>
+      </c>
+      <c r="I30" s="13">
+        <v>0</v>
+      </c>
+      <c r="J30" s="13">
+        <v>0</v>
+      </c>
+      <c r="K30" s="13">
+        <v>0</v>
+      </c>
+      <c r="L30" s="13">
+        <v>-1.7763568394002501E-15</v>
+      </c>
+      <c r="M30" s="13">
+        <v>7.7715611723760958E-16</v>
+      </c>
+      <c r="N30" s="13">
+        <v>0</v>
+      </c>
+      <c r="O30" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="P30" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="Q30" s="13">
+        <v>0</v>
+      </c>
+      <c r="R30" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="S30" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="T30" s="13">
+        <v>-0.3</v>
+      </c>
+      <c r="U30" s="13">
+        <v>0.39999999999999952</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A31" s="14">
+        <v>6</v>
+      </c>
+      <c r="B31" s="13">
+        <v>-0.59999999999999987</v>
+      </c>
+      <c r="C31" s="13">
+        <v>0</v>
+      </c>
+      <c r="D31" s="13">
+        <v>0</v>
+      </c>
+      <c r="E31" s="13">
+        <v>0</v>
+      </c>
+      <c r="F31" s="13">
+        <v>0</v>
+      </c>
+      <c r="G31" s="13">
+        <v>0</v>
+      </c>
+      <c r="H31" s="13">
+        <v>1</v>
+      </c>
+      <c r="I31" s="13">
+        <v>0</v>
+      </c>
+      <c r="J31" s="13">
+        <v>0</v>
+      </c>
+      <c r="K31" s="13">
+        <v>0</v>
+      </c>
+      <c r="L31" s="13">
+        <v>2.7755575615629098E-17</v>
+      </c>
+      <c r="M31" s="13">
+        <v>-1.3877787807814521E-17</v>
+      </c>
+      <c r="N31" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="O31" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="P31" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="R31" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="S31" s="13">
+        <v>0</v>
+      </c>
+      <c r="T31" s="13">
+        <v>6.9388939039072268E-18</v>
+      </c>
+      <c r="U31" s="13">
+        <v>0.40000000000000008</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A32" s="14">
+        <v>7</v>
+      </c>
+      <c r="B32" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="C32" s="13">
+        <v>0</v>
+      </c>
+      <c r="D32" s="13">
+        <v>0</v>
+      </c>
+      <c r="E32" s="13">
+        <v>0</v>
+      </c>
+      <c r="F32" s="13">
+        <v>0</v>
+      </c>
+      <c r="G32" s="13">
+        <v>0</v>
+      </c>
+      <c r="H32" s="13">
+        <v>0</v>
+      </c>
+      <c r="I32" s="13">
+        <v>1</v>
+      </c>
+      <c r="J32" s="13">
+        <v>0</v>
+      </c>
+      <c r="K32" s="13">
+        <v>0</v>
+      </c>
+      <c r="L32" s="13">
+        <v>2.886579864025407E-15</v>
+      </c>
+      <c r="M32" s="13">
+        <v>-3.3306690738754701E-16</v>
+      </c>
+      <c r="N32" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="O32" s="13">
+        <v>1</v>
+      </c>
+      <c r="P32" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="Q32" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="R32" s="13">
         <v>-1</v>
       </c>
-      <c r="K7" s="2">
-        <v>-6.9388939039072284E-18</v>
-      </c>
-      <c r="L7" s="2">
-        <v>-1.387778780781446E-17</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2">
-        <v>1</v>
-      </c>
-      <c r="P7" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>0</v>
-      </c>
-      <c r="R7" s="2">
-        <v>-1</v>
-      </c>
-      <c r="S7" s="2">
-        <v>1</v>
-      </c>
-      <c r="T7" s="2">
-        <v>-1.332267629550188E-15</v>
-      </c>
-      <c r="U7" s="2">
-        <v>0</v>
-      </c>
-      <c r="V7" s="2">
-        <v>-1.6653345369377351E-16</v>
-      </c>
-      <c r="W7" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="X7" s="7"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="8">
-        <v>0.2307692307692292</v>
-      </c>
-      <c r="K8" s="2">
-        <v>-2.307692307692305E-2</v>
-      </c>
-      <c r="L8" s="2">
-        <v>4.6153846153846233E-2</v>
-      </c>
-      <c r="M8" s="2">
-        <v>-2.3076923076923179E-2</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O8" s="2">
-        <v>-0.61538461538461464</v>
-      </c>
-      <c r="P8" s="2">
-        <v>0.1153846153846146</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>-0.5</v>
-      </c>
-      <c r="R8" s="2">
-        <v>0.61538461538461464</v>
-      </c>
-      <c r="S8" s="2">
-        <v>-0.1153846153846146</v>
-      </c>
-      <c r="T8" s="2">
-        <v>-1.2307692307692291</v>
-      </c>
-      <c r="U8" s="2">
-        <v>0</v>
-      </c>
-      <c r="V8" s="2">
-        <v>-4.6153846153845858E-2</v>
-      </c>
-      <c r="W8" s="2">
-        <v>3.0769230769231111E-2</v>
-      </c>
-      <c r="X8" s="7">
-        <v>0.13333333333333569</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>19</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="8">
-        <v>-12.307692307692299</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0.2307692307692305</v>
-      </c>
-      <c r="L9" s="2">
-        <v>-0.46153846153846129</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0.23076923076923059</v>
-      </c>
-      <c r="N9" s="2">
-        <v>0</v>
-      </c>
-      <c r="O9" s="2">
-        <v>6.1538461538461524</v>
-      </c>
-      <c r="P9" s="2">
-        <v>-6.1538461538461506</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>0</v>
-      </c>
-      <c r="R9" s="2">
-        <v>-6.1538461538461524</v>
-      </c>
-      <c r="S9" s="2">
-        <v>6.1538461538461506</v>
-      </c>
-      <c r="T9" s="2">
-        <v>12.307692307692291</v>
-      </c>
-      <c r="U9" s="2">
-        <v>1</v>
-      </c>
-      <c r="V9" s="2">
-        <v>1.461538461538461</v>
-      </c>
-      <c r="W9" s="2">
-        <v>2.6923076923076921</v>
-      </c>
-      <c r="Y9" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>2.2204460492503131E-16</v>
-      </c>
-      <c r="J10" s="8">
-        <v>-5</v>
-      </c>
-      <c r="K10" s="2">
-        <v>-1.110223024625157E-16</v>
-      </c>
-      <c r="L10" s="2">
-        <v>5.5511151231257827E-17</v>
-      </c>
-      <c r="M10" s="2">
-        <v>-2.775557561562891E-17</v>
-      </c>
-      <c r="N10" s="2">
-        <v>-1.110223024625157E-16</v>
-      </c>
-      <c r="O10" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="P10" s="2">
-        <v>-2.5</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>1.110223024625157E-16</v>
-      </c>
-      <c r="R10" s="2">
-        <v>-2.5</v>
-      </c>
-      <c r="S10" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="T10" s="2">
-        <v>3.999999999999996</v>
-      </c>
-      <c r="U10" s="2">
-        <v>0</v>
-      </c>
-      <c r="V10" s="2">
-        <v>-2.2204460492503131E-16</v>
-      </c>
-      <c r="W10" s="2">
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="X10" s="7"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B13">
-        <f t="shared" ref="B13:I13" si="0">B2/$J$2</f>
-        <v>0.86666666666666659</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <f>J2/$J$2</f>
-        <v>1</v>
-      </c>
-      <c r="K13" s="10">
-        <f t="shared" ref="K13:W13" si="1">K2/$J$2</f>
-        <v>-0.1</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="1"/>
-        <v>0.20000000000000051</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="1"/>
-        <v>-0.10000000000000052</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="1"/>
-        <v>-0.5</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="S13">
-        <f t="shared" si="1"/>
-        <v>-0.5</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="1"/>
-        <v>-1.8666666666666656</v>
-      </c>
-      <c r="U13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <f t="shared" si="1"/>
-        <v>-0.19999999999999965</v>
-      </c>
-      <c r="W13">
-        <f t="shared" si="1"/>
-        <v>0.13333333333333344</v>
-      </c>
-      <c r="X13">
-        <f>W13/K13</f>
-        <v>-1.3333333333333344</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B14">
-        <f>B3-$J3*B$13</f>
-        <v>7.3333333333333277</v>
-      </c>
-      <c r="C14">
-        <f t="shared" ref="C14:W14" si="2">C3-$J3*C$13</f>
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="10">
-        <f t="shared" si="2"/>
-        <v>-0.49999999999999961</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="2"/>
-        <v>1.0000000000000036</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="2"/>
-        <v>-0.50000000000000355</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <f t="shared" si="2"/>
-        <v>-8.333333333333325</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <f t="shared" si="2"/>
-        <v>2.6645352591003757E-15</v>
-      </c>
-      <c r="W14">
-        <f t="shared" si="2"/>
-        <v>3.6666666666666652</v>
-      </c>
-      <c r="X14">
-        <f t="shared" ref="X14:X21" si="3">W14/K14</f>
-        <v>-7.3333333333333357</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B15">
-        <f t="shared" ref="B15:W15" si="4">B4-$J4*B$13</f>
-        <v>1.4666666666666655</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="10">
-        <f t="shared" si="4"/>
-        <v>-9.9999999999999867E-2</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="4"/>
-        <v>0.20000000000000054</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="4"/>
-        <v>-0.10000000000000069</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="4"/>
-        <v>-0.5</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="4"/>
-        <v>0.99999999999999944</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="4"/>
-        <v>-0.49999999999999944</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="4"/>
-        <v>-0.99999999999999944</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="4"/>
-        <v>0.49999999999999944</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="4"/>
-        <v>-2.4666666666666663</v>
-      </c>
-      <c r="U15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <f t="shared" si="4"/>
-        <v>0.73333333333333306</v>
-      </c>
-      <c r="X15">
-        <f t="shared" si="3"/>
-        <v>-7.3333333333333401</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B16">
-        <f t="shared" ref="B16:W16" si="5">B5-$J5*B$13</f>
-        <v>-0.19999999999999965</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="5"/>
-        <v>1.387778780781446E-17</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="10">
-        <f t="shared" si="5"/>
-        <v>-3.1225022567582528E-17</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="5"/>
-        <v>-4.163336342344337E-17</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="5"/>
-        <v>-0.5</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="R16">
-        <f t="shared" si="5"/>
-        <v>-0.5</v>
-      </c>
-      <c r="S16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <f t="shared" si="5"/>
-        <v>-0.80000000000000127</v>
-      </c>
-      <c r="U16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <f t="shared" si="5"/>
-        <v>-7.6327832942979512E-17</v>
-      </c>
-      <c r="W16">
-        <f t="shared" si="5"/>
-        <v>1.1796119636642288E-16</v>
-      </c>
-      <c r="X16">
-        <f t="shared" si="3"/>
-        <v>-3.7777777777777777</v>
-      </c>
-    </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <f t="shared" ref="B17:W17" si="6">B6-$J6*B$13</f>
-        <v>1.4666666666666655</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="10">
-        <f t="shared" si="6"/>
-        <v>-9.9999999999999839E-2</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="6"/>
-        <v>0.20000000000000062</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="6"/>
-        <v>-0.10000000000000066</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="6"/>
-        <v>0.49999999999999989</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="6"/>
-        <v>-0.99999999999999956</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="6"/>
-        <v>0.49999999999999967</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="6"/>
-        <v>-0.49999999999999989</v>
-      </c>
-      <c r="R17">
-        <f t="shared" si="6"/>
-        <v>0.99999999999999956</v>
-      </c>
-      <c r="S17">
-        <f t="shared" si="6"/>
-        <v>-0.49999999999999967</v>
-      </c>
-      <c r="T17">
-        <f t="shared" si="6"/>
-        <v>-2.4666666666666632</v>
-      </c>
-      <c r="U17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <f t="shared" si="6"/>
-        <v>8.3266726846886741E-16</v>
-      </c>
-      <c r="W17">
-        <f t="shared" si="6"/>
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="X17">
-        <f t="shared" si="3"/>
-        <v>-7.3333333333333446</v>
-      </c>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B18">
-        <f t="shared" ref="B18:W18" si="7">B7-$J7*B$13</f>
-        <v>0.86666666666666659</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="10">
-        <f t="shared" si="7"/>
-        <v>-0.1</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="7"/>
-        <v>0.20000000000000051</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="7"/>
-        <v>-0.10000000000000052</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="7"/>
-        <v>0.5</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="7"/>
-        <v>-0.5</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <f t="shared" si="7"/>
-        <v>-0.5</v>
-      </c>
-      <c r="S18">
-        <f t="shared" si="7"/>
-        <v>0.5</v>
-      </c>
-      <c r="T18">
-        <f t="shared" si="7"/>
-        <v>-1.8666666666666669</v>
-      </c>
-      <c r="U18">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <f t="shared" si="7"/>
-        <v>-0.19999999999999982</v>
-      </c>
-      <c r="W18">
-        <f t="shared" si="7"/>
-        <v>0.53333333333333344</v>
-      </c>
-      <c r="X18">
-        <f t="shared" si="3"/>
-        <v>-5.3333333333333339</v>
-      </c>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B19">
-        <f t="shared" ref="B19:W19" si="8">B8-$J8*B$13</f>
-        <v>-0.19999999999999862</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="10">
-        <f t="shared" si="8"/>
-        <v>-1.2836953722228372E-16</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="8"/>
-        <v>2.7755575615628914E-16</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="8"/>
-        <v>-1.3877787807814457E-16</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="8"/>
-        <v>-0.5</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="8"/>
-        <v>-0.5</v>
-      </c>
-      <c r="R19">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
-      <c r="S19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <f t="shared" si="8"/>
-        <v>-0.80000000000000149</v>
-      </c>
-      <c r="U19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <f t="shared" si="8"/>
-        <v>-9.7144514654701197E-17</v>
-      </c>
-      <c r="W19">
-        <f t="shared" si="8"/>
-        <v>5.2735593669694936E-16</v>
-      </c>
-      <c r="X19">
-        <f t="shared" si="3"/>
-        <v>-4.1081081081081079</v>
-      </c>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B20">
-        <f t="shared" ref="B20:W20" si="9">B9-$J9*B$13</f>
-        <v>10.666666666666659</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="10">
-        <f t="shared" si="9"/>
-        <v>-0.99999999999999944</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="9"/>
-        <v>2.0000000000000049</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="9"/>
-        <v>-1.0000000000000058</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <f t="shared" si="9"/>
-        <v>-10.666666666666655</v>
-      </c>
-      <c r="U20">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="V20">
-        <f t="shared" si="9"/>
-        <v>-0.99999999999999445</v>
-      </c>
-      <c r="W20">
-        <f t="shared" si="9"/>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="X20">
-        <f t="shared" si="3"/>
-        <v>-4.3333333333333357</v>
-      </c>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B21">
-        <f t="shared" ref="B21:W21" si="10">B10-$J10*B$13</f>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="10"/>
-        <v>2.2204460492503131E-16</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="10">
-        <f t="shared" si="10"/>
-        <v>-0.50000000000000011</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="10"/>
-        <v>1.0000000000000027</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="10"/>
-        <v>-0.50000000000000255</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="10"/>
-        <v>-1.110223024625157E-16</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" si="10"/>
-        <v>1.110223024625157E-16</v>
-      </c>
-      <c r="R21">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <f t="shared" si="10"/>
-        <v>-5.3333333333333321</v>
-      </c>
-      <c r="U21">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <f t="shared" si="10"/>
-        <v>-0.99999999999999845</v>
-      </c>
-      <c r="W21">
-        <f t="shared" si="10"/>
-        <v>1.666666666666667</v>
-      </c>
-      <c r="X21">
-        <f t="shared" si="3"/>
-        <v>-3.333333333333333</v>
-      </c>
+      <c r="S32" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="T32" s="13">
+        <v>-0.3</v>
+      </c>
+      <c r="U32" s="13">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A33" s="14">
+        <v>8</v>
+      </c>
+      <c r="B33" s="13">
+        <v>-0.60000000000000053</v>
+      </c>
+      <c r="C33" s="13">
+        <v>0</v>
+      </c>
+      <c r="D33" s="13">
+        <v>0</v>
+      </c>
+      <c r="E33" s="13">
+        <v>0</v>
+      </c>
+      <c r="F33" s="13">
+        <v>0</v>
+      </c>
+      <c r="G33" s="13">
+        <v>0</v>
+      </c>
+      <c r="H33" s="13">
+        <v>0</v>
+      </c>
+      <c r="I33" s="13">
+        <v>0</v>
+      </c>
+      <c r="J33" s="13">
+        <v>1</v>
+      </c>
+      <c r="K33" s="13">
+        <v>0</v>
+      </c>
+      <c r="L33" s="13">
+        <v>-1.7763568394002501E-15</v>
+      </c>
+      <c r="M33" s="13">
+        <v>7.7715611723760958E-16</v>
+      </c>
+      <c r="N33" s="13">
+        <v>0</v>
+      </c>
+      <c r="O33" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="P33" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="Q33" s="13">
+        <v>0</v>
+      </c>
+      <c r="R33" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="S33" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="T33" s="13">
+        <v>-0.3</v>
+      </c>
+      <c r="U33" s="13">
+        <v>0.39999999999999952</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="Z36" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="Y39" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z39" s="13">
+        <v>10</v>
+      </c>
+      <c r="AA39" s="13">
+        <v>20</v>
+      </c>
+      <c r="AB39" s="13">
+        <v>40</v>
+      </c>
+      <c r="AC39" s="13">
+        <v>80</v>
+      </c>
+      <c r="AD39" s="13">
+        <v>160</v>
+      </c>
+      <c r="AE39" s="13">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="Y40" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z40" s="13"/>
+      <c r="AA40" s="13"/>
+      <c r="AB40" s="13"/>
+      <c r="AC40" s="13"/>
+      <c r="AD40" s="13"/>
+      <c r="AE40" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Examples/Problems solutions.xlsx
+++ b/Examples/Problems solutions.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="71">
   <si>
     <t>xn1</t>
   </si>
@@ -175,9 +175,6 @@
     <t>как получить что p должно быть равно нулю здесь</t>
   </si>
   <si>
-    <t>pRv</t>
-  </si>
-  <si>
     <t>basis</t>
   </si>
   <si>
@@ -193,14 +190,498 @@
     <t>n</t>
   </si>
   <si>
-    <t>error, %</t>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>n1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>n2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>n3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>n1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>n2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>n3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>τ1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>τ2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>τ3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>τ1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>-</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>τ2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>-</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>τ3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>-</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>τ1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>τ2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>τ3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>τ1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>-</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>τ2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>-</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>τ3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>-</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>pR</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>v</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>c</t>
+    </r>
+  </si>
+  <si>
+    <t>u error, %</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +714,24 @@
     </font>
     <font>
       <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -293,7 +792,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -314,6 +813,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -32961,8 +33463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="R38" sqref="R38"/>
+    <sheetView tabSelected="1" topLeftCell="O31" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="X37" sqref="X37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -32973,81 +33475,86 @@
     <col min="21" max="21" width="6.5703125" style="11" customWidth="1"/>
     <col min="22" max="22" width="8.140625" style="11" customWidth="1"/>
     <col min="23" max="24" width="9.140625" style="11"/>
-    <col min="25" max="25" width="7.42578125" style="11" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="11"/>
+    <col min="25" max="25" width="8.7109375" style="11" customWidth="1"/>
+    <col min="26" max="26" width="10.7109375" style="11" customWidth="1"/>
+    <col min="27" max="27" width="10.5703125" style="11" customWidth="1"/>
+    <col min="28" max="28" width="9.7109375" style="11" customWidth="1"/>
+    <col min="29" max="30" width="10.28515625" style="11" customWidth="1"/>
+    <col min="31" max="31" width="10.42578125" style="11" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C1" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="V2" s="12" t="s">
         <v>46</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="T2" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="U2" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" s="12" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
@@ -33653,69 +34160,69 @@
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="Q13" s="12" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="R13" s="12" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="S13" s="12" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="V13" s="12" t="s">
         <v>19</v>
@@ -33848,7 +34355,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="13">
-        <v>1.110223024625157E-16</v>
+        <v>0</v>
       </c>
       <c r="U15" s="13">
         <v>8.3333333333333357</v>
@@ -33916,7 +34423,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="13">
-        <v>-5.5511151231257827E-17</v>
+        <v>0</v>
       </c>
       <c r="U16" s="13">
         <v>5.3333333333333348</v>
@@ -34315,69 +34822,69 @@
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="N24" s="12" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="O24" s="12" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="Q24" s="12" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="R24" s="12" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="S24" s="12" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="T24" s="12" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="U24" s="12" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="V24" s="12" t="s">
         <v>19</v>
@@ -34976,42 +35483,54 @@
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="Z36" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="Y39" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z39" s="13">
+        <v>49</v>
+      </c>
+      <c r="Z39" s="16">
+        <v>5</v>
+      </c>
+      <c r="AA39" s="16">
         <v>10</v>
       </c>
-      <c r="AA39" s="13">
+      <c r="AB39" s="16">
         <v>20</v>
       </c>
-      <c r="AB39" s="13">
+      <c r="AC39" s="16">
         <v>40</v>
       </c>
-      <c r="AC39" s="13">
+      <c r="AD39" s="16">
         <v>80</v>
       </c>
-      <c r="AD39" s="13">
+      <c r="AE39" s="16">
         <v>160</v>
-      </c>
-      <c r="AE39" s="13">
-        <v>320</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="Y40" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z40" s="13"/>
-      <c r="AA40" s="13"/>
-      <c r="AB40" s="13"/>
-      <c r="AC40" s="13"/>
-      <c r="AD40" s="13"/>
-      <c r="AE40" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="Z40" s="16">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AA40" s="16">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="AB40" s="16">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="AC40" s="16">
+        <v>0.91</v>
+      </c>
+      <c r="AD40" s="16">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="AE40" s="16">
+        <v>0.84</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
